--- a/Office/1.xlsx
+++ b/Office/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.1\Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15847300-ED88-49DA-A31D-B88391156A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976D5A49-CCB0-4F66-97E6-72A5B8A8E71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E599AE80-615C-4B6C-9C1F-E854D84AE947}"/>
   </bookViews>
@@ -30,13 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Столбец9</t>
-  </si>
-  <si>
-    <t>Столбец10</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Номер п/п</t>
   </si>
@@ -59,7 +53,10 @@
     <t>Собівартість польоту 1-го пасажира, грн</t>
   </si>
   <si>
-    <t>Очікуваний прибуток</t>
+    <t>Очікуваний прибуток, $</t>
+  </si>
+  <si>
+    <t>Отриманий прибуток, $</t>
   </si>
 </sst>
 </file>
@@ -108,7 +105,11 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -122,19 +123,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37459A9D-81FB-489F-9309-6D6FFA32E4A5}" name="Таблица1" displayName="Таблица1" ref="A1:J6" totalsRowShown="0">
-  <autoFilter ref="A1:J6" xr:uid="{52FE0557-54B2-4384-B884-4A9847D620E7}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{F9654CB4-8169-4EE6-98C9-5E23A184BAEA}" name="Номер п/п"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37459A9D-81FB-489F-9309-6D6FFA32E4A5}" name="Таблица1" displayName="Таблица1" ref="A1:I7" totalsRowShown="0">
+  <autoFilter ref="A1:I7" xr:uid="{52FE0557-54B2-4384-B884-4A9847D620E7}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{F9654CB4-8169-4EE6-98C9-5E23A184BAEA}" name="Номер п/п" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{2F5F405D-CB00-4085-8267-0061B911D296}" name="Тип літака"/>
     <tableColumn id="3" xr3:uid="{E0D41014-B912-472C-8283-030F182E503E}" name="Номер рейсу"/>
     <tableColumn id="4" xr3:uid="{BA86D5F7-E37F-4CA9-8257-4FC8478A9162}" name="ПІБ командира екіпажу"/>
     <tableColumn id="5" xr3:uid="{8C3E2DC6-4B13-48B1-B6EB-7368A021CC56}" name="Дата вильоту"/>
     <tableColumn id="6" xr3:uid="{6F6CF833-3C58-4FDD-AAEB-DED4024E8296}" name="Кількість пасажирів, що вилітают"/>
     <tableColumn id="7" xr3:uid="{9BF1B3A7-48B3-41BF-979B-98F5D2D52FD4}" name="Собівартість польоту 1-го пасажира, грн"/>
-    <tableColumn id="8" xr3:uid="{212CAF01-D255-4B5E-9A26-53DC8ACC9529}" name="Очікуваний прибуток"/>
-    <tableColumn id="9" xr3:uid="{AC2F2980-A383-45C8-BFAF-8A0E5561CAE5}" name="Столбец9"/>
-    <tableColumn id="10" xr3:uid="{A1B2EFEC-F90F-48D8-B9EC-B4544AA2BDE8}" name="Столбец10"/>
+    <tableColumn id="8" xr3:uid="{212CAF01-D255-4B5E-9A26-53DC8ACC9529}" name="Очікуваний прибуток, $"/>
+    <tableColumn id="9" xr3:uid="{AC2F2980-A383-45C8-BFAF-8A0E5561CAE5}" name="Отриманий прибуток, $"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5799616-A4BD-4760-A986-853424D4D6FD}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,40 +452,92 @@
     <col min="5" max="5" width="17.77734375" customWidth="1"/>
     <col min="6" max="6" width="21.77734375" customWidth="1"/>
     <col min="7" max="7" width="23.88671875" customWidth="1"/>
-    <col min="8" max="9" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" customWidth="1"/>
     <col min="10" max="10" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Office/1.xlsx
+++ b/Office/1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.1\Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976D5A49-CCB0-4F66-97E6-72A5B8A8E71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084BADD4-6B1C-4C85-AAD8-030ED113C216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E599AE80-615C-4B6C-9C1F-E854D84AE947}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Номер п/п</t>
   </si>
@@ -57,16 +58,70 @@
   </si>
   <si>
     <t>Отриманий прибуток, $</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Среднее</t>
+  </si>
+  <si>
+    <t>С нарастающим итогом</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Кількість посадкових місць</t>
+  </si>
+  <si>
+    <t>Норма пального, літри</t>
+  </si>
+  <si>
+    <t>Airbus</t>
+  </si>
+  <si>
+    <t>ATR</t>
+  </si>
+  <si>
+    <t>Saab AB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$UAH]_-;\-* #,##0.00\ [$UAH]_-;_-* &quot;-&quot;??\ [$UAH]_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -90,10 +145,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -101,11 +158,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -126,7 +199,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37459A9D-81FB-489F-9309-6D6FFA32E4A5}" name="Таблица1" displayName="Таблица1" ref="A1:I7" totalsRowShown="0">
   <autoFilter ref="A1:I7" xr:uid="{52FE0557-54B2-4384-B884-4A9847D620E7}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F9654CB4-8169-4EE6-98C9-5E23A184BAEA}" name="Номер п/п" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F9654CB4-8169-4EE6-98C9-5E23A184BAEA}" name="Номер п/п" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{2F5F405D-CB00-4085-8267-0061B911D296}" name="Тип літака"/>
     <tableColumn id="3" xr3:uid="{E0D41014-B912-472C-8283-030F182E503E}" name="Номер рейсу"/>
     <tableColumn id="4" xr3:uid="{BA86D5F7-E37F-4CA9-8257-4FC8478A9162}" name="ПІБ командира екіпажу"/>
@@ -135,6 +208,18 @@
     <tableColumn id="7" xr3:uid="{9BF1B3A7-48B3-41BF-979B-98F5D2D52FD4}" name="Собівартість польоту 1-го пасажира, грн"/>
     <tableColumn id="8" xr3:uid="{212CAF01-D255-4B5E-9A26-53DC8ACC9529}" name="Очікуваний прибуток, $"/>
     <tableColumn id="9" xr3:uid="{AC2F2980-A383-45C8-BFAF-8A0E5561CAE5}" name="Отриманий прибуток, $"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D22D3135-2A09-4F71-A550-5CBED1124EC9}" name="Таблица2" displayName="Таблица2" ref="A1:C5" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C5" xr:uid="{068FB8AD-7BCE-49C5-B011-1ACB3AFDCBE4}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8C6BD55C-DEB5-46C9-BF88-99CA02745099}" name="Тип літака"/>
+    <tableColumn id="2" xr3:uid="{00BF54D9-8882-41DA-B320-12B914CF3D47}" name="Кількість посадкових місць"/>
+    <tableColumn id="3" xr3:uid="{260DF082-98C8-415F-92E7-792CDBB9B884}" name="Норма пального, літри"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -437,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5799616-A4BD-4760-A986-853424D4D6FD}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,7 +538,7 @@
     <col min="6" max="6" width="21.77734375" customWidth="1"/>
     <col min="7" max="7" width="23.88671875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="22.21875" customWidth="1"/>
+    <col min="9" max="9" width="24.21875" customWidth="1"/>
     <col min="10" max="10" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -519,26 +604,143 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4">
+        <v>44208</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <f>VLOOKUP(B3,Лист2!A3:B5,2,)</f>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Warning" sqref="F3 F5 F4" xr:uid="{DEF6FE44-59B0-4D16-B0F3-BB3D0C742F0E}">
+      <formula1>0</formula1>
+      <formula2>C15</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{2C85C747-D60C-4429-8828-B56607124A87}">
+      <formula1>0</formula1>
+      <formula2>C15</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E67AF-CFB6-438A-B929-F545E3C3BEC8}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>160</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Office/1.xlsx
+++ b/Office/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.1\Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084BADD4-6B1C-4C85-AAD8-030ED113C216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A1493C-2A0C-4F83-B91A-1669D60678ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E599AE80-615C-4B6C-9C1F-E854D84AE947}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
-  <si>
-    <t>Номер п/п</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Тип літака</t>
   </si>
@@ -48,9 +45,6 @@
     <t>Дата вильоту</t>
   </si>
   <si>
-    <t>Кількість пасажирів, що вилітают</t>
-  </si>
-  <si>
     <t>Собівартість польоту 1-го пасажира, грн</t>
   </si>
   <si>
@@ -60,40 +54,50 @@
     <t>Отриманий прибуток, $</t>
   </si>
   <si>
-    <t>Сумма</t>
-  </si>
-  <si>
-    <t>Среднее</t>
-  </si>
-  <si>
-    <t>С нарастающим итогом</t>
-  </si>
-  <si>
-    <t>Количество</t>
-  </si>
-  <si>
     <t>Кількість посадкових місць</t>
   </si>
   <si>
     <t>Норма пального, літри</t>
   </si>
   <si>
-    <t>Airbus</t>
-  </si>
-  <si>
-    <t>ATR</t>
-  </si>
-  <si>
-    <t>Saab AB</t>
+    <t>Курс доллара</t>
+  </si>
+  <si>
+    <t>Іванов І.І.</t>
+  </si>
+  <si>
+    <t>Петров П.П.</t>
+  </si>
+  <si>
+    <t>Сідоров С.С.</t>
+  </si>
+  <si>
+    <t>1234А</t>
+  </si>
+  <si>
+    <t>1Н234</t>
+  </si>
+  <si>
+    <t>Кількість пасажирів, що вилітають</t>
+  </si>
+  <si>
+    <t>Номер
+ п/п</t>
+  </si>
+  <si>
+    <t>Airbus A320</t>
+  </si>
+  <si>
+    <t>ATR 42</t>
+  </si>
+  <si>
+    <t>Saab AB 2000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$UAH]_-;\-* #,##0.00\ [$UAH]_-;_-* &quot;-&quot;??\ [$UAH]_-;_-@_-"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,12 +132,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,7 +160,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -168,7 +178,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -196,15 +221,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37459A9D-81FB-489F-9309-6D6FFA32E4A5}" name="Таблица1" displayName="Таблица1" ref="A1:I7" totalsRowShown="0">
-  <autoFilter ref="A1:I7" xr:uid="{52FE0557-54B2-4384-B884-4A9847D620E7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37459A9D-81FB-489F-9309-6D6FFA32E4A5}" name="Таблица1" displayName="Таблица1" ref="A1:I9" totalsRowShown="0">
+  <autoFilter ref="A1:I9" xr:uid="{5B4CD0F1-7F84-4970-AC00-54B1413ADB8C}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F9654CB4-8169-4EE6-98C9-5E23A184BAEA}" name="Номер п/п" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F9654CB4-8169-4EE6-98C9-5E23A184BAEA}" name="Номер_x000a_ п/п" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{2F5F405D-CB00-4085-8267-0061B911D296}" name="Тип літака"/>
     <tableColumn id="3" xr3:uid="{E0D41014-B912-472C-8283-030F182E503E}" name="Номер рейсу"/>
     <tableColumn id="4" xr3:uid="{BA86D5F7-E37F-4CA9-8257-4FC8478A9162}" name="ПІБ командира екіпажу"/>
     <tableColumn id="5" xr3:uid="{8C3E2DC6-4B13-48B1-B6EB-7368A021CC56}" name="Дата вильоту"/>
-    <tableColumn id="6" xr3:uid="{6F6CF833-3C58-4FDD-AAEB-DED4024E8296}" name="Кількість пасажирів, що вилітают"/>
+    <tableColumn id="6" xr3:uid="{6F6CF833-3C58-4FDD-AAEB-DED4024E8296}" name="Кількість пасажирів, що вилітають"/>
     <tableColumn id="7" xr3:uid="{9BF1B3A7-48B3-41BF-979B-98F5D2D52FD4}" name="Собівартість польоту 1-го пасажира, грн"/>
     <tableColumn id="8" xr3:uid="{212CAF01-D255-4B5E-9A26-53DC8ACC9529}" name="Очікуваний прибуток, $"/>
     <tableColumn id="9" xr3:uid="{AC2F2980-A383-45C8-BFAF-8A0E5561CAE5}" name="Отриманий прибуток, $"/>
@@ -522,15 +547,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5799616-A4BD-4760-A986-853424D4D6FD}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
@@ -543,131 +569,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12">
+        <v>6</v>
+      </c>
+      <c r="G2" s="12">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H2" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="I2" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2">
+        <v>11111</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>44607</v>
+      </c>
+      <c r="F3" s="5">
+        <v>50</v>
+      </c>
+      <c r="G3" s="10">
+        <v>7500</v>
+      </c>
+      <c r="H3" s="9">
+        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!A3:B5,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$11</f>
+        <v>4120.8791208791208</v>
+      </c>
+      <c r="I3" s="9">
+        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$11</f>
+        <v>4120.8791208791208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4">
+        <v>44612</v>
+      </c>
+      <c r="F4" s="5">
+        <v>60</v>
+      </c>
+      <c r="G4" s="6">
+        <v>6500</v>
+      </c>
+      <c r="H4" s="9">
+        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!A4:B6,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$11</f>
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="I4" s="9">
+        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$11</f>
+        <v>4285.7142857142853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="D2" s="2">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4">
-        <v>44208</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4"/>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4">
+        <v>44620</v>
+      </c>
       <c r="F5" s="5">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="G5" s="6">
+        <v>7950</v>
+      </c>
+      <c r="H5" s="9">
+        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!A3:B5,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$11</f>
+        <v>13978.021978021978</v>
+      </c>
+      <c r="I5" s="9">
+        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$11</f>
+        <v>8823.6263736263736</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="E6" s="4"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="E7" s="4"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C15">
-        <f>VLOOKUP(B3,Лист2!A3:B5,2,)</f>
-        <v>50</v>
-      </c>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Warning" sqref="F3 F5 F4" xr:uid="{DEF6FE44-59B0-4D16-B0F3-BB3D0C742F0E}">
+  <dataValidations count="3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{2C85C747-D60C-4429-8828-B56607124A87}">
       <formula1>0</formula1>
       <formula2>C15</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{2C85C747-D60C-4429-8828-B56607124A87}">
-      <formula1>0</formula1>
-      <formula2>C15</formula2>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не коректная дата" error="Дата должна быть больше чем сегоднешняя" promptTitle="Дата больше сегодняшней" sqref="E3:E5" xr:uid="{03EFA30A-617D-44B0-B00C-296EB722801B}">
+      <formula1>TODAY()</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно" error="Не верная длина поля" promptTitle="Длина рейса" prompt="Длина рейса не меньше 1 и не больше 5" sqref="C3:C5" xr:uid="{EBF4BC07-2D01-43A4-9ADE-13E2CF3E1790}">
+      <formula1>1</formula1>
+      <formula2>5</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -675,6 +764,39 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{B34829F7-2A67-44FC-80B9-B48837F0A8B5}">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>VLOOKUP($B$3,Лист2!$A$3:$B$5,2,)</xm:f>
+          </x14:formula2>
+          <xm:sqref>F3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{1A3DC3ED-7A1B-493C-AD01-5D394154C1F0}">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>VLOOKUP($B$5,Лист2!$A$3:$B$5,2,)</xm:f>
+          </x14:formula2>
+          <xm:sqref>F5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{44F79FEA-D071-45C5-B58A-D807BBD6BF1A}">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>VLOOKUP($B$4,Лист2!$A$3:$B$5,2,)</xm:f>
+          </x14:formula2>
+          <xm:sqref>F4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -695,13 +817,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -717,30 +839,36 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2">
         <v>160</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2">
+        <v>3467</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>50</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C4" s="2">
+        <v>600</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2">
         <v>50</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>1093</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Office/1.xlsx
+++ b/Office/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.1\Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A1493C-2A0C-4F83-B91A-1669D60678ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8B1600-B0E4-436D-9DE7-0890A488BBEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E599AE80-615C-4B6C-9C1F-E854D84AE947}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Тип літака</t>
   </si>
@@ -92,13 +92,37 @@
   </si>
   <si>
     <t>Saab AB 2000</t>
+  </si>
+  <si>
+    <t>Boeing 747</t>
+  </si>
+  <si>
+    <t>245T5</t>
+  </si>
+  <si>
+    <t>58P47</t>
+  </si>
+  <si>
+    <t>431T1</t>
+  </si>
+  <si>
+    <t>789C1</t>
+  </si>
+  <si>
+    <t>122D2</t>
+  </si>
+  <si>
+    <t>2002F</t>
+  </si>
+  <si>
+    <t>Итог</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +150,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -160,7 +191,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -178,7 +209,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -194,18 +224,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -221,10 +263,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37459A9D-81FB-489F-9309-6D6FFA32E4A5}" name="Таблица1" displayName="Таблица1" ref="A1:I9" totalsRowShown="0">
-  <autoFilter ref="A1:I9" xr:uid="{5B4CD0F1-7F84-4970-AC00-54B1413ADB8C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37459A9D-81FB-489F-9309-6D6FFA32E4A5}" name="Таблица1" displayName="Таблица1" ref="A1:I13" totalsRowCount="1">
+  <autoFilter ref="A1:I12" xr:uid="{39994AE9-A6A7-4828-BB3F-F255BDB6696D}"/>
+  <sortState ref="A2:I12">
+    <sortCondition ref="B1:B12"/>
+  </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F9654CB4-8169-4EE6-98C9-5E23A184BAEA}" name="Номер_x000a_ п/п" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{F9654CB4-8169-4EE6-98C9-5E23A184BAEA}" name="Номер_x000a_ п/п" totalsRowLabel="Итог" dataDxfId="2" totalsRowDxfId="1"/>
     <tableColumn id="2" xr3:uid="{2F5F405D-CB00-4085-8267-0061B911D296}" name="Тип літака"/>
     <tableColumn id="3" xr3:uid="{E0D41014-B912-472C-8283-030F182E503E}" name="Номер рейсу"/>
     <tableColumn id="4" xr3:uid="{BA86D5F7-E37F-4CA9-8257-4FC8478A9162}" name="ПІБ командира екіпажу"/>
@@ -232,15 +277,15 @@
     <tableColumn id="6" xr3:uid="{6F6CF833-3C58-4FDD-AAEB-DED4024E8296}" name="Кількість пасажирів, що вилітають"/>
     <tableColumn id="7" xr3:uid="{9BF1B3A7-48B3-41BF-979B-98F5D2D52FD4}" name="Собівартість польоту 1-го пасажира, грн"/>
     <tableColumn id="8" xr3:uid="{212CAF01-D255-4B5E-9A26-53DC8ACC9529}" name="Очікуваний прибуток, $"/>
-    <tableColumn id="9" xr3:uid="{AC2F2980-A383-45C8-BFAF-8A0E5561CAE5}" name="Отриманий прибуток, $"/>
+    <tableColumn id="9" xr3:uid="{AC2F2980-A383-45C8-BFAF-8A0E5561CAE5}" name="Отриманий прибуток, $" totalsRowFunction="sum" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D22D3135-2A09-4F71-A550-5CBED1124EC9}" name="Таблица2" displayName="Таблица2" ref="A1:C5" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:C5" xr:uid="{068FB8AD-7BCE-49C5-B011-1ACB3AFDCBE4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D22D3135-2A09-4F71-A550-5CBED1124EC9}" name="Таблица2" displayName="Таблица2" ref="A1:C6" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:C6" xr:uid="{068FB8AD-7BCE-49C5-B011-1ACB3AFDCBE4}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8C6BD55C-DEB5-46C9-BF88-99CA02745099}" name="Тип літака"/>
     <tableColumn id="2" xr3:uid="{00BF54D9-8882-41DA-B320-12B914CF3D47}" name="Кількість посадкових місць"/>
@@ -547,11 +592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5799616-A4BD-4760-A986-853424D4D6FD}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E17" sqref="E17"/>
+      <selection pane="topRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,163 +643,374 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>2</v>
       </c>
-      <c r="C2" s="12">
-        <v>2</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="C2" s="11">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11">
         <v>4</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>5</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>6</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>7</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <v>8</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2">
-        <v>11111</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>10</v>
+      <c r="A3" s="12">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="E3" s="4">
-        <v>44607</v>
+        <v>44620</v>
       </c>
       <c r="F3" s="5">
         <v>50</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="6">
+        <v>7950</v>
+      </c>
+      <c r="H3" s="8">
+        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!$A$3:$B$6,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$26</f>
+        <v>13978.021978021978</v>
+      </c>
+      <c r="I3" s="8">
+        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$26</f>
+        <v>4368.131868131868</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4">
+        <v>44628</v>
+      </c>
+      <c r="F4" s="5">
+        <v>50</v>
+      </c>
+      <c r="G4" s="6">
+        <v>7950</v>
+      </c>
+      <c r="H4" s="8">
+        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!$A$3:$B$6,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$26</f>
+        <v>13978.021978021978</v>
+      </c>
+      <c r="I4" s="8">
+        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$26</f>
+        <v>4368.131868131868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4">
+        <v>44612</v>
+      </c>
+      <c r="F5" s="5">
+        <v>60</v>
+      </c>
+      <c r="G5" s="6">
+        <v>6500</v>
+      </c>
+      <c r="H5" s="8">
+        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!$A$3:$B$6,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$26</f>
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="I5" s="8">
+        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$26</f>
+        <v>4285.7142857142853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4">
+        <v>44652</v>
+      </c>
+      <c r="F6" s="5">
+        <v>50</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6500</v>
+      </c>
+      <c r="H6" s="8">
+        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!$A$3:$B$6,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$26</f>
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="I6" s="8">
+        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$26</f>
+        <v>3571.4285714285716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>15476</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4">
+        <v>44660</v>
+      </c>
+      <c r="F7" s="5">
+        <v>50</v>
+      </c>
+      <c r="G7" s="6">
+        <v>6500</v>
+      </c>
+      <c r="H7" s="8">
+        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!$A$3:$B$6,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$26</f>
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="I7" s="8">
+        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$26</f>
+        <v>3571.4285714285716</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4">
+        <v>44676</v>
+      </c>
+      <c r="F8" s="5">
+        <v>50</v>
+      </c>
+      <c r="G8" s="6">
+        <v>6500</v>
+      </c>
+      <c r="H8" s="8">
+        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!$A$3:$B$6,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$26</f>
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="I8" s="8">
+        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$26</f>
+        <v>3571.4285714285716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <v>44636</v>
+      </c>
+      <c r="F9" s="5">
+        <v>660</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2500</v>
+      </c>
+      <c r="H9" s="8">
+        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!$A$3:$B$6,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$26</f>
+        <v>18131.86813186813</v>
+      </c>
+      <c r="I9" s="8">
+        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$26</f>
+        <v>18131.86813186813</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4">
+        <v>44668</v>
+      </c>
+      <c r="F10" s="5">
+        <v>250</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2500</v>
+      </c>
+      <c r="H10" s="8">
+        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!$A$3:$B$6,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$26</f>
+        <v>18131.86813186813</v>
+      </c>
+      <c r="I10" s="8">
+        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$26</f>
+        <v>6868.131868131868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2">
+        <v>11111</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
+        <v>44607</v>
+      </c>
+      <c r="F11" s="5">
+        <v>50</v>
+      </c>
+      <c r="G11" s="9">
         <v>7500</v>
       </c>
-      <c r="H3" s="9">
-        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!A3:B5,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$11</f>
+      <c r="H11" s="8">
+        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!$A$3:$B$6,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$26</f>
         <v>4120.8791208791208</v>
       </c>
-      <c r="I3" s="9">
-        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$11</f>
+      <c r="I11" s="8">
+        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$26</f>
         <v>4120.8791208791208</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="11" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
-        <v>44612</v>
-      </c>
-      <c r="F4" s="5">
-        <v>60</v>
-      </c>
-      <c r="G4" s="6">
-        <v>6500</v>
-      </c>
-      <c r="H4" s="9">
-        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!A4:B6,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$11</f>
-        <v>4285.7142857142853</v>
-      </c>
-      <c r="I4" s="9">
-        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$11</f>
-        <v>4285.7142857142853</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4">
-        <v>44620</v>
-      </c>
-      <c r="F5" s="5">
-        <v>101</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="E12" s="4">
+        <v>44644</v>
+      </c>
+      <c r="F12" s="5">
+        <v>50</v>
+      </c>
+      <c r="G12" s="6">
         <v>7950</v>
       </c>
-      <c r="H5" s="9">
-        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!A3:B5,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$11</f>
-        <v>13978.021978021978</v>
-      </c>
-      <c r="I5" s="9">
-        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$11</f>
-        <v>8823.6263736263736</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="H12" s="8">
+        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!$A$3:$B$6,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$26</f>
+        <v>4368.131868131868</v>
+      </c>
+      <c r="I12" s="8">
+        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$26</f>
+        <v>4368.131868131868</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="8">
+        <f>SUBTOTAL(109,Таблица1[Отриманий прибуток, $])</f>
+        <v>57234.274725274721</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>27.3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{2C85C747-D60C-4429-8828-B56607124A87}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{2C85C747-D60C-4429-8828-B56607124A87}">
       <formula1>0</formula1>
-      <formula2>C15</formula2>
+      <formula2>C16</formula2>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не коректная дата" error="Дата должна быть больше чем сегоднешняя" promptTitle="Дата больше сегодняшней" sqref="E3:E5" xr:uid="{03EFA30A-617D-44B0-B00C-296EB722801B}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не коректная дата" error="Дата должна быть больше чем сегоднешняя" promptTitle="Дата больше сегодняшней" sqref="E3:E12" xr:uid="{03EFA30A-617D-44B0-B00C-296EB722801B}">
       <formula1>TODAY()</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно" error="Не верная длина поля" promptTitle="Длина рейса" prompt="Длина рейса не меньше 1 и не больше 5" sqref="C3:C5" xr:uid="{EBF4BC07-2D01-43A4-9ADE-13E2CF3E1790}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно" error="Не верная длина поля" promptTitle="Длина рейса" prompt="Длина рейса не меньше 1 и не больше 5" sqref="C3:C12" xr:uid="{EBF4BC07-2D01-43A4-9ADE-13E2CF3E1790}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
@@ -766,33 +1022,96 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{B34829F7-2A67-44FC-80B9-B48837F0A8B5}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$3,Лист2!$A$3:$B$5,2,)</xm:f>
+            <xm:f>VLOOKUP($B$3,Лист2!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
           <xm:sqref>F3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{1A3DC3ED-7A1B-493C-AD01-5D394154C1F0}">
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{3D136A7C-04B2-4A78-9ADE-B3CC10D650B6}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$5,Лист2!$A$3:$B$5,2,)</xm:f>
+            <xm:f>VLOOKUP($B$4,Лист2!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F5</xm:sqref>
+          <xm:sqref>F4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{44F79FEA-D071-45C5-B58A-D807BBD6BF1A}">
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{AF925862-A5F5-4DCC-8B6C-7DB85C1736FE}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$4,Лист2!$A$3:$B$5,2,)</xm:f>
+            <xm:f>VLOOKUP($B$5,Лист2!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F4</xm:sqref>
+          <xm:sqref>F5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{431D507A-3AE2-46F4-997C-3C7FE028517B}">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>VLOOKUP($B$6,Лист2!$A$3:$B$6,2,)</xm:f>
+          </x14:formula2>
+          <xm:sqref>F6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{0481C4D3-3110-45D8-8803-CA8FC54E1441}">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>VLOOKUP($B$7,Лист2!$A$3:$B$6,2,)</xm:f>
+          </x14:formula2>
+          <xm:sqref>F7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{0B64AEC1-AED3-4780-A2AF-963386866B97}">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>VLOOKUP($B$8,Лист2!$A$3:$B$6,2,)</xm:f>
+          </x14:formula2>
+          <xm:sqref>F8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{F263D157-CDB8-4006-A0B4-E68D7745D41D}">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>VLOOKUP($B$9,Лист2!$A$3:$B$6,2,)</xm:f>
+          </x14:formula2>
+          <xm:sqref>F9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{F9DC2FAF-1A3F-46FF-859C-AA107A77B2F0}">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>VLOOKUP($B$10,Лист2!$A$3:$B$6,2,)</xm:f>
+          </x14:formula2>
+          <xm:sqref>F10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{51C753DF-B0FA-4A15-9B58-9A50A9BC56B5}">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>VLOOKUP($B$11,Лист2!$A$3:$B$6,2,)</xm:f>
+          </x14:formula2>
+          <xm:sqref>F11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{D71A24E6-24CA-446D-A938-9FF569A282C5}">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>VLOOKUP($B$12,Лист2!$A$3:$B$6,2,)</xm:f>
+          </x14:formula2>
+          <xm:sqref>F12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -802,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E67AF-CFB6-438A-B929-F545E3C3BEC8}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -870,6 +1189,27 @@
         <v>1093</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>660</v>
+      </c>
+      <c r="C6" s="2">
+        <v>19333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Office/1.xlsx
+++ b/Office/1.xlsx
@@ -8,15 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.1\Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8B1600-B0E4-436D-9DE7-0890A488BBEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4095413E-DDA9-4BA3-B56D-C42793AC12D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E599AE80-615C-4B6C-9C1F-E854D84AE947}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E599AE80-615C-4B6C-9C1F-E854D84AE947}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1 (2)" sheetId="6" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$I$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Лист1 (2)'!$A$1:$I$12</definedName>
+  </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="41">
   <si>
     <t>Тип літака</t>
   </si>
@@ -115,14 +124,53 @@
     <t>2002F</t>
   </si>
   <si>
-    <t>Итог</t>
+    <t>2 Итог</t>
+  </si>
+  <si>
+    <t>Общий итог</t>
+  </si>
+  <si>
+    <t>Airbus A320 Итог</t>
+  </si>
+  <si>
+    <t>ATR 42 Итог</t>
+  </si>
+  <si>
+    <t>Boeing 747 Итог</t>
+  </si>
+  <si>
+    <t>Saab AB 2000 Итог</t>
+  </si>
+  <si>
+    <t>Сумма по полю Отриманий прибуток, $</t>
+  </si>
+  <si>
+    <t>(пусто)</t>
+  </si>
+  <si>
+    <t>Названия столбцов</t>
+  </si>
+  <si>
+    <t>Airbus A320 Итог Итог</t>
+  </si>
+  <si>
+    <t>ATR 42 Итог Итог</t>
+  </si>
+  <si>
+    <t>Boeing 747 Итог Итог</t>
+  </si>
+  <si>
+    <t>Saab AB 2000 Итог Итог</t>
+  </si>
+  <si>
+    <t>Общий итог Итог</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,8 +210,26 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,12 +242,92 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -191,7 +337,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -199,35 +345,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -236,16 +456,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -262,29 +473,414 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37459A9D-81FB-489F-9309-6D6FFA32E4A5}" name="Таблица1" displayName="Таблица1" ref="A1:I13" totalsRowCount="1">
-  <autoFilter ref="A1:I12" xr:uid="{39994AE9-A6A7-4828-BB3F-F255BDB6696D}"/>
-  <sortState ref="A2:I12">
-    <sortCondition ref="B1:B12"/>
-  </sortState>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F9654CB4-8169-4EE6-98C9-5E23A184BAEA}" name="Номер_x000a_ п/п" totalsRowLabel="Итог" dataDxfId="2" totalsRowDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{2F5F405D-CB00-4085-8267-0061B911D296}" name="Тип літака"/>
-    <tableColumn id="3" xr3:uid="{E0D41014-B912-472C-8283-030F182E503E}" name="Номер рейсу"/>
-    <tableColumn id="4" xr3:uid="{BA86D5F7-E37F-4CA9-8257-4FC8478A9162}" name="ПІБ командира екіпажу"/>
-    <tableColumn id="5" xr3:uid="{8C3E2DC6-4B13-48B1-B6EB-7368A021CC56}" name="Дата вильоту"/>
-    <tableColumn id="6" xr3:uid="{6F6CF833-3C58-4FDD-AAEB-DED4024E8296}" name="Кількість пасажирів, що вилітають"/>
-    <tableColumn id="7" xr3:uid="{9BF1B3A7-48B3-41BF-979B-98F5D2D52FD4}" name="Собівартість польоту 1-го пасажира, грн"/>
-    <tableColumn id="8" xr3:uid="{212CAF01-D255-4B5E-9A26-53DC8ACC9529}" name="Очікуваний прибуток, $"/>
-    <tableColumn id="9" xr3:uid="{AC2F2980-A383-45C8-BFAF-8A0E5561CAE5}" name="Отриманий прибуток, $" totalsRowFunction="sum" totalsRowDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="qmerkyr" refreshedDate="44612.867143171294" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="16" xr:uid="{8058549E-0D51-4EC7-A9C4-3B7A0A64305C}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:I17" sheet="Лист1"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="Номер_x000a_ п/п" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Тип літака" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="2" count="10">
+        <n v="2"/>
+        <s v="Airbus A320"/>
+        <s v="Airbus A320 Итог"/>
+        <s v="ATR 42"/>
+        <s v="ATR 42 Итог"/>
+        <s v="Boeing 747"/>
+        <s v="Boeing 747 Итог"/>
+        <s v="Saab AB 2000"/>
+        <s v="Saab AB 2000 Итог"/>
+        <s v="Общий итог"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Номер рейсу" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="15476" count="12">
+        <n v="3"/>
+        <s v="1Н234"/>
+        <s v="245T5"/>
+        <m/>
+        <s v="1234А"/>
+        <s v="789C1"/>
+        <n v="15476"/>
+        <s v="2002F"/>
+        <s v="58P47"/>
+        <s v="122D2"/>
+        <n v="11111"/>
+        <s v="431T1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ПІБ командира екіпажу" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="4"/>
+    </cacheField>
+    <cacheField name="Дата вильоту" numFmtId="0">
+      <sharedItems containsDate="1" containsString="0" containsBlank="1" containsMixedTypes="1" minDate="1899-12-31T00:21:04" maxDate="2022-04-26T00:00:00"/>
+    </cacheField>
+    <cacheField name="Кількість пасажирів, що вилітають" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="6" maxValue="660"/>
+    </cacheField>
+    <cacheField name="Собівартість польоту 1-го пасажира, грн" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="7" maxValue="7950"/>
+    </cacheField>
+    <cacheField name="Очікуваний прибуток, $" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="8" maxValue="18131.86813186813"/>
+    </cacheField>
+    <cacheField name="Отриманий прибуток, $" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9" maxValue="57234.274725274721"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D22D3135-2A09-4F71-A550-5CBED1124EC9}" name="Таблица2" displayName="Таблица2" ref="A1:C6" totalsRowShown="0" headerRowDxfId="3">
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="16">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="6"/>
+    <n v="7"/>
+    <n v="8"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Сідоров С.С."/>
+    <d v="2022-02-28T00:00:00"/>
+    <n v="50"/>
+    <n v="7950"/>
+    <n v="13978.021978021978"/>
+    <n v="4368.131868131868"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Петров П.П."/>
+    <d v="2022-03-08T00:00:00"/>
+    <n v="50"/>
+    <n v="7950"/>
+    <n v="13978.021978021978"/>
+    <n v="4368.131868131868"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="8736.2637362637361"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="3"/>
+    <x v="4"/>
+    <s v="Петров П.П."/>
+    <d v="2022-02-20T00:00:00"/>
+    <n v="60"/>
+    <n v="6500"/>
+    <n v="4285.7142857142853"/>
+    <n v="4285.7142857142853"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="3"/>
+    <x v="5"/>
+    <s v="Сідоров С.С."/>
+    <d v="2022-04-01T00:00:00"/>
+    <n v="50"/>
+    <n v="6500"/>
+    <n v="4285.7142857142853"/>
+    <n v="3571.4285714285716"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="3"/>
+    <x v="6"/>
+    <s v="Сідоров С.С."/>
+    <d v="2022-04-09T00:00:00"/>
+    <n v="50"/>
+    <n v="6500"/>
+    <n v="4285.7142857142853"/>
+    <n v="3571.4285714285716"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="3"/>
+    <x v="7"/>
+    <s v="Петров П.П."/>
+    <d v="2022-04-25T00:00:00"/>
+    <n v="50"/>
+    <n v="6500"/>
+    <n v="4285.7142857142853"/>
+    <n v="3571.4285714285716"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="15000"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="5"/>
+    <x v="8"/>
+    <s v="Іванов І.І."/>
+    <d v="2022-03-16T00:00:00"/>
+    <n v="660"/>
+    <n v="2500"/>
+    <n v="18131.86813186813"/>
+    <n v="18131.86813186813"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="5"/>
+    <x v="9"/>
+    <s v="Іванов І.І."/>
+    <d v="2022-04-17T00:00:00"/>
+    <n v="250"/>
+    <n v="2500"/>
+    <n v="18131.86813186813"/>
+    <n v="6868.131868131868"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="25000"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="7"/>
+    <x v="10"/>
+    <s v="Іванов І.І."/>
+    <d v="2022-02-15T00:00:00"/>
+    <n v="50"/>
+    <n v="7500"/>
+    <n v="4120.8791208791208"/>
+    <n v="4120.8791208791208"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="7"/>
+    <x v="11"/>
+    <s v="Петров П.П."/>
+    <d v="2022-03-24T00:00:00"/>
+    <n v="50"/>
+    <n v="7950"/>
+    <n v="4368.131868131868"/>
+    <n v="4368.131868131868"/>
+  </r>
+  <r>
+    <m/>
+    <x v="8"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="8489.0109890109889"/>
+  </r>
+  <r>
+    <m/>
+    <x v="9"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="57234.274725274721"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D472B5C-8838-49D5-8AD6-2568D80E8901}" name="Сводная таблица1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:AB6" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </colFields>
+  <colItems count="27">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="11"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="11"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="11"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="11"/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="11"/>
+    </i>
+    <i t="default">
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Сумма по полю Отриманий прибуток, $" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D22D3135-2A09-4F71-A550-5CBED1124EC9}" name="Таблица2" displayName="Таблица2" ref="A1:C6" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:C6" xr:uid="{068FB8AD-7BCE-49C5-B011-1ACB3AFDCBE4}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8C6BD55C-DEB5-46C9-BF88-99CA02745099}" name="Тип літака"/>
@@ -592,14 +1188,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5799616-A4BD-4760-A986-853424D4D6FD}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D15" sqref="D15"/>
+      <selection pane="topRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.44140625" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
@@ -614,412 +1210,484 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+    <row r="2" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>2</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>3</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>4</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>5</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>6</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>7</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>8</v>
       </c>
       <c r="I2" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="15">
         <v>44620</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="16">
         <v>50</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="17">
         <v>7950</v>
       </c>
-      <c r="H3" s="8">
-        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!$A$3:$B$6,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$26</f>
+      <c r="H3" s="18">
+        <f>VLOOKUP(Лист1!$B3,Лист2!$A$3:$B$6,2,)*Лист1!$G3*0.3/$A$30</f>
         <v>13978.021978021978</v>
       </c>
-      <c r="I3" s="8">
-        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$26</f>
+      <c r="I3" s="19">
+        <f>Лист1!$G3*Лист1!$F3*0.3/$A$30</f>
         <v>4368.131868131868</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+    <row r="4" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
-        <v>44628</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E4" s="21">
+        <v>44620</v>
+      </c>
+      <c r="F4" s="22">
         <v>50</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="23">
         <v>7950</v>
       </c>
-      <c r="H4" s="8">
-        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!$A$3:$B$6,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$26</f>
+      <c r="H4" s="24">
+        <f>VLOOKUP(Лист1!$B4,Лист2!$A$3:$B$6,2,)*Лист1!$G4*0.3/$A$30</f>
         <v>13978.021978021978</v>
       </c>
-      <c r="I4" s="8">
-        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$26</f>
+      <c r="I4" s="25">
+        <f>Лист1!$G4*Лист1!$F4*0.3/$A$30</f>
         <v>4368.131868131868</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+    <row r="5" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25">
+        <f>SUBTOTAL(9,I3:I4)</f>
+        <v>8736.2637362637361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="15">
         <v>44612</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F6" s="16">
         <v>60</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G6" s="17">
         <v>6500</v>
       </c>
-      <c r="H5" s="8">
-        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!$A$3:$B$6,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$26</f>
+      <c r="H6" s="18">
+        <f>VLOOKUP(Лист1!$B6,Лист2!$A$3:$B$6,2,)*Лист1!$G6*0.3/$A$30</f>
         <v>4285.7142857142853</v>
       </c>
-      <c r="I5" s="8">
-        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$26</f>
+      <c r="I6" s="19">
+        <f>Лист1!$G6*Лист1!$F6*0.3/$A$30</f>
         <v>4285.7142857142853</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+    <row r="7" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4">
-        <v>44652</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E7" s="21">
+        <v>44644</v>
+      </c>
+      <c r="F7" s="22">
         <v>50</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G7" s="23">
         <v>6500</v>
       </c>
-      <c r="H6" s="8">
-        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!$A$3:$B$6,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$26</f>
+      <c r="H7" s="24">
+        <f>VLOOKUP(Лист1!$B7,Лист2!$A$3:$B$6,2,)*Лист1!$G7*0.3/$A$30</f>
         <v>4285.7142857142853</v>
       </c>
-      <c r="I6" s="8">
-        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$26</f>
+      <c r="I7" s="25">
+        <f>Лист1!$G7*Лист1!$F7*0.3/$A$30</f>
         <v>3571.4285714285716</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+    <row r="8" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
         <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2">
-        <v>15476</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4">
-        <v>44660</v>
-      </c>
-      <c r="F7" s="5">
-        <v>50</v>
-      </c>
-      <c r="G7" s="6">
-        <v>6500</v>
-      </c>
-      <c r="H7" s="8">
-        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!$A$3:$B$6,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$26</f>
-        <v>4285.7142857142853</v>
-      </c>
-      <c r="I7" s="8">
-        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$26</f>
-        <v>3571.4285714285716</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>10</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="13">
+        <v>15476</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="15">
+        <v>44660</v>
+      </c>
+      <c r="F8" s="16">
+        <v>50</v>
+      </c>
+      <c r="G8" s="17">
+        <v>6500</v>
+      </c>
+      <c r="H8" s="18">
+        <f>VLOOKUP(Лист1!$B8,Лист2!$A$3:$B$6,2,)*Лист1!$G8*0.3/$A$30</f>
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="I8" s="19">
+        <f>Лист1!$G8*Лист1!$F8*0.3/$A$30</f>
+        <v>3571.4285714285716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>10</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="21">
         <v>44676</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F9" s="22">
         <v>50</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G9" s="23">
         <v>6500</v>
       </c>
-      <c r="H8" s="8">
-        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!$A$3:$B$6,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$26</f>
+      <c r="H9" s="24">
+        <f>VLOOKUP(Лист1!$B9,Лист2!$A$3:$B$6,2,)*Лист1!$G9*0.3/$A$30</f>
         <v>4285.7142857142853</v>
       </c>
-      <c r="I8" s="8">
-        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$26</f>
+      <c r="I9" s="25">
+        <f>Лист1!$G9*Лист1!$F9*0.3/$A$30</f>
         <v>3571.4285714285716</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+    <row r="10" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25">
+        <f>SUBTOTAL(9,I6:I9)</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4">
-        <v>44636</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E11" s="15">
+        <v>44620</v>
+      </c>
+      <c r="F11" s="16">
         <v>660</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G11" s="17">
         <v>2500</v>
       </c>
-      <c r="H9" s="8">
-        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!$A$3:$B$6,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$26</f>
+      <c r="H11" s="18">
+        <f>VLOOKUP(Лист1!$B11,Лист2!$A$3:$B$6,2,)*Лист1!$G11*0.3/$A$30</f>
         <v>18131.86813186813</v>
       </c>
-      <c r="I9" s="8">
-        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$26</f>
+      <c r="I11" s="19">
+        <f>Лист1!$G11*Лист1!$F11*0.3/$A$30</f>
         <v>18131.86813186813</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+    <row r="12" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4">
-        <v>44668</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="E12" s="21">
+        <v>44662</v>
+      </c>
+      <c r="F12" s="22">
         <v>250</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G12" s="23">
         <v>2500</v>
       </c>
-      <c r="H10" s="8">
-        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!$A$3:$B$6,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$26</f>
+      <c r="H12" s="24">
+        <f>VLOOKUP(Лист1!$B12,Лист2!$A$3:$B$6,2,)*Лист1!$G12*0.3/$A$30</f>
         <v>18131.86813186813</v>
       </c>
-      <c r="I10" s="8">
-        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$26</f>
+      <c r="I12" s="25">
+        <f>Лист1!$G12*Лист1!$F12*0.3/$A$30</f>
         <v>6868.131868131868</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+    <row r="13" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25">
+        <f>SUBTOTAL(9,I11:I12)</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C14" s="13">
         <v>11111</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E14" s="15">
         <v>44607</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F14" s="16">
         <v>50</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G14" s="30">
         <v>7500</v>
       </c>
-      <c r="H11" s="8">
-        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!$A$3:$B$6,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$26</f>
+      <c r="H14" s="18">
+        <f>VLOOKUP(Лист1!$B14,Лист2!$A$3:$B$6,2,)*Лист1!$G14*0.3/$A$30</f>
         <v>4120.8791208791208</v>
       </c>
-      <c r="I11" s="8">
-        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$26</f>
+      <c r="I14" s="19">
+        <f>Лист1!$G14*Лист1!$F14*0.3/$A$30</f>
         <v>4120.8791208791208</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+    <row r="15" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A15" s="31">
         <v>6</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B15" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C15" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E15" s="33">
         <v>44644</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F15" s="34">
         <v>50</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G15" s="35">
         <v>7950</v>
       </c>
-      <c r="H12" s="8">
-        <f>VLOOKUP(Таблица1[[#This Row],[Тип літака]],Лист2!$A$3:$B$6,2,)*Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*0.3/$A$26</f>
+      <c r="H15" s="36">
+        <f>VLOOKUP(Лист1!$B15,Лист2!$A$3:$B$6,2,)*Лист1!$G15*0.3/$A$30</f>
         <v>4368.131868131868</v>
       </c>
-      <c r="I12" s="8">
-        <f>Таблица1[[#This Row],[Собівартість польоту 1-го пасажира, грн]]*Таблица1[[#This Row],[Кількість пасажирів, що вилітають]]*0.3/$A$26</f>
+      <c r="I15" s="37">
+        <f>Лист1!$G15*Лист1!$F15*0.3/$A$30</f>
         <v>4368.131868131868</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="8">
-        <f>SUBTOTAL(109,Таблица1[Отриманий прибуток, $])</f>
+    <row r="16" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
+      <c r="B16" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43">
+        <f>SUBTOTAL(9,I14:I15)</f>
+        <v>8489.0109890109889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="38"/>
+      <c r="B17" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43">
+        <f>SUBTOTAL(9,I2:I15)</f>
         <v>57234.274725274721</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>27.3</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I15" xr:uid="{8329D174-3D3B-48FA-9233-44CF89F00C1A}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{2C85C747-D60C-4429-8828-B56607124A87}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20" xr:uid="{2C85C747-D60C-4429-8828-B56607124A87}">
       <formula1>0</formula1>
-      <formula2>C16</formula2>
+      <formula2>C20</formula2>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не коректная дата" error="Дата должна быть больше чем сегоднешняя" promptTitle="Дата больше сегодняшней" sqref="E3:E12" xr:uid="{03EFA30A-617D-44B0-B00C-296EB722801B}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не коректная дата" error="Дата должна быть больше чем сегоднешняя" promptTitle="Дата больше сегодняшней" sqref="E3:E4 E6:E9 E11:E12 E14:E15" xr:uid="{03EFA30A-617D-44B0-B00C-296EB722801B}">
       <formula1>TODAY()</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно" error="Не верная длина поля" promptTitle="Длина рейса" prompt="Длина рейса не меньше 1 и не больше 5" sqref="C3:C12" xr:uid="{EBF4BC07-2D01-43A4-9ADE-13E2CF3E1790}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно" error="Не верная длина поля" promptTitle="Длина рейса" prompt="Длина рейса не меньше 1 и не больше 5" sqref="C3:C4 C6:C9 C11:C12 C14:C15" xr:uid="{EBF4BC07-2D01-43A4-9ADE-13E2CF3E1790}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
@@ -1046,11 +1714,562 @@
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$5,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$6,Лист2!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F5</xm:sqref>
+          <xm:sqref>F6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{431D507A-3AE2-46F4-997C-3C7FE028517B}">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>VLOOKUP($B$7,Лист2!$A$3:$B$6,2,)</xm:f>
+          </x14:formula2>
+          <xm:sqref>F7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{0481C4D3-3110-45D8-8803-CA8FC54E1441}">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>VLOOKUP($B$8,Лист2!$A$3:$B$6,2,)</xm:f>
+          </x14:formula2>
+          <xm:sqref>F8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{0B64AEC1-AED3-4780-A2AF-963386866B97}">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>VLOOKUP($B$9,Лист2!$A$3:$B$6,2,)</xm:f>
+          </x14:formula2>
+          <xm:sqref>F9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{F263D157-CDB8-4006-A0B4-E68D7745D41D}">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>VLOOKUP($B$11,Лист2!$A$3:$B$6,2,)</xm:f>
+          </x14:formula2>
+          <xm:sqref>F11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{F9DC2FAF-1A3F-46FF-859C-AA107A77B2F0}">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>VLOOKUP($B$12,Лист2!$A$3:$B$6,2,)</xm:f>
+          </x14:formula2>
+          <xm:sqref>F12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{51C753DF-B0FA-4A15-9B58-9A50A9BC56B5}">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>VLOOKUP($B$14,Лист2!$A$3:$B$6,2,)</xm:f>
+          </x14:formula2>
+          <xm:sqref>F14</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{D71A24E6-24CA-446D-A938-9FF569A282C5}">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>VLOOKUP($B$15,Лист2!$A$3:$B$6,2,)</xm:f>
+          </x14:formula2>
+          <xm:sqref>F15</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D01E49-A145-4516-A1BC-6394AD4EFD38}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="24.21875" customWidth="1"/>
+    <col min="10" max="10" width="24.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10">
+        <v>4</v>
+      </c>
+      <c r="E2" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10">
+        <v>6</v>
+      </c>
+      <c r="G2" s="10">
+        <v>7</v>
+      </c>
+      <c r="H2" s="10">
+        <v>8</v>
+      </c>
+      <c r="I2" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="13">
+        <v>11111</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="15">
+        <v>44607</v>
+      </c>
+      <c r="F3" s="16">
+        <v>50</v>
+      </c>
+      <c r="G3" s="30">
+        <v>7500</v>
+      </c>
+      <c r="H3" s="18">
+        <f>VLOOKUP('Лист1 (2)'!$B11,Лист2!$A$3:$B$6,2,)*'Лист1 (2)'!$G11*0.3/$A$25</f>
+        <v>18131.86813186813</v>
+      </c>
+      <c r="I3" s="19">
+        <f>'Лист1 (2)'!$G11*'Лист1 (2)'!$F11*0.3/$A$25</f>
+        <v>6868.131868131868</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="15">
+        <v>44612</v>
+      </c>
+      <c r="F4" s="16">
+        <v>60</v>
+      </c>
+      <c r="G4" s="17">
+        <v>6500</v>
+      </c>
+      <c r="H4" s="18">
+        <f>VLOOKUP('Лист1 (2)'!$B5,Лист2!$A$3:$B$6,2,)*'Лист1 (2)'!$G5*0.3/$A$25</f>
+        <v>13978.021978021978</v>
+      </c>
+      <c r="I4" s="19">
+        <f>'Лист1 (2)'!$G5*'Лист1 (2)'!$F5*0.3/$A$25</f>
+        <v>4368.131868131868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="15">
+        <v>44620</v>
+      </c>
+      <c r="F5" s="16">
+        <v>50</v>
+      </c>
+      <c r="G5" s="17">
+        <v>7950</v>
+      </c>
+      <c r="H5" s="18">
+        <f>VLOOKUP('Лист1 (2)'!$B3,Лист2!$A$3:$B$6,2,)*'Лист1 (2)'!$G3*0.3/$A$25</f>
+        <v>4120.8791208791208</v>
+      </c>
+      <c r="I5" s="19">
+        <f>'Лист1 (2)'!$G3*'Лист1 (2)'!$F3*0.3/$A$25</f>
+        <v>4120.8791208791208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="21">
+        <v>44620</v>
+      </c>
+      <c r="F6" s="22">
+        <v>50</v>
+      </c>
+      <c r="G6" s="23">
+        <v>7950</v>
+      </c>
+      <c r="H6" s="24">
+        <f>VLOOKUP('Лист1 (2)'!$B4,Лист2!$A$3:$B$6,2,)*'Лист1 (2)'!$G4*0.3/$A$25</f>
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="I6" s="25">
+        <f>'Лист1 (2)'!$G4*'Лист1 (2)'!$F4*0.3/$A$25</f>
+        <v>4285.7142857142853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="15">
+        <v>44620</v>
+      </c>
+      <c r="F7" s="16">
+        <v>660</v>
+      </c>
+      <c r="G7" s="17">
+        <v>2500</v>
+      </c>
+      <c r="H7" s="18">
+        <f>VLOOKUP('Лист1 (2)'!$B9,Лист2!$A$3:$B$6,2,)*'Лист1 (2)'!$G9*0.3/$A$25</f>
+        <v>4368.131868131868</v>
+      </c>
+      <c r="I7" s="19">
+        <f>'Лист1 (2)'!$G9*'Лист1 (2)'!$F9*0.3/$A$25</f>
+        <v>4368.131868131868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="21">
+        <v>44644</v>
+      </c>
+      <c r="F8" s="22">
+        <v>50</v>
+      </c>
+      <c r="G8" s="23">
+        <v>6500</v>
+      </c>
+      <c r="H8" s="24">
+        <f>VLOOKUP('Лист1 (2)'!$B6,Лист2!$A$3:$B$6,2,)*'Лист1 (2)'!$G6*0.3/$A$25</f>
+        <v>13978.021978021978</v>
+      </c>
+      <c r="I8" s="25">
+        <f>'Лист1 (2)'!$G6*'Лист1 (2)'!$F6*0.3/$A$25</f>
+        <v>4368.131868131868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="21">
+        <v>44644</v>
+      </c>
+      <c r="F9" s="22">
+        <v>50</v>
+      </c>
+      <c r="G9" s="23">
+        <v>7950</v>
+      </c>
+      <c r="H9" s="24">
+        <f>VLOOKUP('Лист1 (2)'!$B12,Лист2!$A$3:$B$6,2,)*'Лист1 (2)'!$G12*0.3/$A$25</f>
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="I9" s="25">
+        <f>'Лист1 (2)'!$G12*'Лист1 (2)'!$F12*0.3/$A$25</f>
+        <v>3571.4285714285716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="13">
+        <v>15476</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="15">
+        <v>44660</v>
+      </c>
+      <c r="F10" s="16">
+        <v>50</v>
+      </c>
+      <c r="G10" s="17">
+        <v>6500</v>
+      </c>
+      <c r="H10" s="18">
+        <f>VLOOKUP('Лист1 (2)'!$B7,Лист2!$A$3:$B$6,2,)*'Лист1 (2)'!$G7*0.3/$A$25</f>
+        <v>18131.86813186813</v>
+      </c>
+      <c r="I10" s="19">
+        <f>'Лист1 (2)'!$G7*'Лист1 (2)'!$F7*0.3/$A$25</f>
+        <v>18131.86813186813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="21">
+        <v>44662</v>
+      </c>
+      <c r="F11" s="22">
+        <v>250</v>
+      </c>
+      <c r="G11" s="23">
+        <v>2500</v>
+      </c>
+      <c r="H11" s="24">
+        <f>VLOOKUP('Лист1 (2)'!$B10,Лист2!$A$3:$B$6,2,)*'Лист1 (2)'!$G10*0.3/$A$25</f>
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="I11" s="25">
+        <f>'Лист1 (2)'!$G10*'Лист1 (2)'!$F10*0.3/$A$25</f>
+        <v>3571.4285714285716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>10</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="33">
+        <v>44676</v>
+      </c>
+      <c r="F12" s="34">
+        <v>50</v>
+      </c>
+      <c r="G12" s="35">
+        <v>6500</v>
+      </c>
+      <c r="H12" s="36">
+        <f>VLOOKUP('Лист1 (2)'!$B8,Лист2!$A$3:$B$6,2,)*'Лист1 (2)'!$G8*0.3/$A$25</f>
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="I12" s="37">
+        <f>'Лист1 (2)'!$G8*'Лист1 (2)'!$F8*0.3/$A$25</f>
+        <v>3571.4285714285716</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>27.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I12" xr:uid="{8329D174-3D3B-48FA-9233-44CF89F00C1A}">
+    <sortState ref="A2:I12">
+      <sortCondition ref="E1:E12"/>
+    </sortState>
+  </autoFilter>
+  <dataValidations count="3">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно" error="Не верная длина поля" promptTitle="Длина рейса" prompt="Длина рейса не меньше 1 и не больше 5" sqref="C3:C4 C5:C8 C9:C10 C11:C12" xr:uid="{33654687-4320-4113-AE56-C51D70C5EA4D}">
+      <formula1>1</formula1>
+      <formula2>5</formula2>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не коректная дата" error="Дата должна быть больше чем сегоднешняя" promptTitle="Дата больше сегодняшней" sqref="E3:E4 E5:E8 E9:E10 E11:E12" xr:uid="{6B5769E8-E61A-4816-A629-D16680756FCE}">
+      <formula1>TODAY()</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{45D46584-04ED-4761-BF8D-6C6407A8348F}">
+      <formula1>0</formula1>
+      <formula2>C15</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{CF45DCF3-2B60-46A6-951C-D218D2533524}">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>VLOOKUP($B$12,Лист2!$A$3:$B$6,2,)</xm:f>
+          </x14:formula2>
+          <xm:sqref>F12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{4A257C24-C635-484F-9D7E-F09B7E9669B7}">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>VLOOKUP($B$11,Лист2!$A$3:$B$6,2,)</xm:f>
+          </x14:formula2>
+          <xm:sqref>F11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{81E4C56B-0EA7-4B6A-B694-C7489E8D70A4}">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>VLOOKUP($B$10,Лист2!$A$3:$B$6,2,)</xm:f>
+          </x14:formula2>
+          <xm:sqref>F10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{C8B17DEC-CCF4-4A27-844F-302F59F60299}">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>VLOOKUP($B$9,Лист2!$A$3:$B$6,2,)</xm:f>
+          </x14:formula2>
+          <xm:sqref>F9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{B1427212-504A-4FB7-AE7E-4C927A875227}">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>VLOOKUP($B$8,Лист2!$A$3:$B$6,2,)</xm:f>
+          </x14:formula2>
+          <xm:sqref>F8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{A5BFB321-C993-4CB1-ACEF-E5D8CF62A5C1}">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>VLOOKUP($B$7,Лист2!$A$3:$B$6,2,)</xm:f>
+          </x14:formula2>
+          <xm:sqref>F7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{95139B5F-EFA4-454B-B7E8-12E13DE17264}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
@@ -1059,59 +2278,32 @@
           </x14:formula2>
           <xm:sqref>F6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{0481C4D3-3110-45D8-8803-CA8FC54E1441}">
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{5285EA14-2C89-4498-9C8A-897A9FD282AF}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$7,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$5,Лист2!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F7</xm:sqref>
+          <xm:sqref>F5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{0B64AEC1-AED3-4780-A2AF-963386866B97}">
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{628F0FB3-41E7-4CAC-9DBD-B9246406AF2B}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$8,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$4,Лист2!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F8</xm:sqref>
+          <xm:sqref>F4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{F263D157-CDB8-4006-A0B4-E68D7745D41D}">
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{41F67397-F33B-4AC7-8C82-69CF8B2E0D9D}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$9,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$3,Лист2!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F9</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{F9DC2FAF-1A3F-46FF-859C-AA107A77B2F0}">
-          <x14:formula1>
-            <xm:f>0</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>VLOOKUP($B$10,Лист2!$A$3:$B$6,2,)</xm:f>
-          </x14:formula2>
-          <xm:sqref>F10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{51C753DF-B0FA-4A15-9B58-9A50A9BC56B5}">
-          <x14:formula1>
-            <xm:f>0</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>VLOOKUP($B$11,Лист2!$A$3:$B$6,2,)</xm:f>
-          </x14:formula2>
-          <xm:sqref>F11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{D71A24E6-24CA-446D-A938-9FF569A282C5}">
-          <x14:formula1>
-            <xm:f>0</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>VLOOKUP($B$12,Лист2!$A$3:$B$6,2,)</xm:f>
-          </x14:formula2>
-          <xm:sqref>F12</xm:sqref>
+          <xm:sqref>F3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1119,12 +2311,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E67AF-CFB6-438A-B929-F545E3C3BEC8}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1216,4 +2408,252 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D33D4FA-88CD-4DB5-B883-54CA3A1A46FE}">
+  <dimension ref="A3:AB6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B3" s="48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>15476</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5">
+        <v>11111</v>
+      </c>
+      <c r="V5" t="s">
+        <v>23</v>
+      </c>
+      <c r="X5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="47">
+        <v>9</v>
+      </c>
+      <c r="C6" s="47">
+        <v>9</v>
+      </c>
+      <c r="D6" s="47">
+        <v>4368.131868131868</v>
+      </c>
+      <c r="E6" s="47">
+        <v>4368.131868131868</v>
+      </c>
+      <c r="F6" s="47">
+        <v>8736.2637362637361</v>
+      </c>
+      <c r="G6" s="47">
+        <v>8736.2637362637361</v>
+      </c>
+      <c r="H6" s="47">
+        <v>8736.2637362637361</v>
+      </c>
+      <c r="I6" s="47">
+        <v>3571.4285714285716</v>
+      </c>
+      <c r="J6" s="47">
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="K6" s="47">
+        <v>3571.4285714285716</v>
+      </c>
+      <c r="L6" s="47">
+        <v>3571.4285714285716</v>
+      </c>
+      <c r="M6" s="47">
+        <v>15000</v>
+      </c>
+      <c r="N6" s="47">
+        <v>15000</v>
+      </c>
+      <c r="O6" s="47">
+        <v>15000</v>
+      </c>
+      <c r="P6" s="47">
+        <v>6868.131868131868</v>
+      </c>
+      <c r="Q6" s="47">
+        <v>18131.86813186813</v>
+      </c>
+      <c r="R6" s="47">
+        <v>25000</v>
+      </c>
+      <c r="S6" s="47">
+        <v>25000</v>
+      </c>
+      <c r="T6" s="47">
+        <v>25000</v>
+      </c>
+      <c r="U6" s="47">
+        <v>4120.8791208791208</v>
+      </c>
+      <c r="V6" s="47">
+        <v>4368.131868131868</v>
+      </c>
+      <c r="W6" s="47">
+        <v>8489.0109890109889</v>
+      </c>
+      <c r="X6" s="47">
+        <v>8489.0109890109889</v>
+      </c>
+      <c r="Y6" s="47">
+        <v>8489.0109890109889</v>
+      </c>
+      <c r="Z6" s="47">
+        <v>57234.274725274721</v>
+      </c>
+      <c r="AA6" s="47">
+        <v>57234.274725274721</v>
+      </c>
+      <c r="AB6" s="47">
+        <v>171693.82417582418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Office/1.xlsx
+++ b/Office/1.xlsx
@@ -2,29 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.1\Office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.1\Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4095413E-DDA9-4BA3-B56D-C42793AC12D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D0C718-3858-471D-9720-4B33CCC791CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E599AE80-615C-4B6C-9C1F-E854D84AE947}"/>
+    <workbookView xWindow="12675" yWindow="735" windowWidth="21600" windowHeight="11385" tabRatio="619" activeTab="1" xr2:uid="{E599AE80-615C-4B6C-9C1F-E854D84AE947}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1 (2)" sheetId="6" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
-    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Сводная" sheetId="10" r:id="rId1"/>
+    <sheet name="Основная" sheetId="1" r:id="rId2"/>
+    <sheet name="Вспомогательная" sheetId="2" r:id="rId3"/>
+    <sheet name="Лист1 (2)" sheetId="6" r:id="rId4"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$I$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Лист1 (2)'!$A$1:$I$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Лист1 (2)'!$A$1:$I$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Основная!$A$1:$I$14</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="10" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="50">
   <si>
     <t>Тип літака</t>
   </si>
@@ -164,6 +165,33 @@
   </si>
   <si>
     <t>Общий итог Итог</t>
+  </si>
+  <si>
+    <t>Названия строк</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15.02.2022 Итог</t>
+  </si>
+  <si>
+    <t>20.02.2022 Итог</t>
+  </si>
+  <si>
+    <t>28.02.2022 Итог</t>
+  </si>
+  <si>
+    <t>24.03.2022 Итог</t>
+  </si>
+  <si>
+    <t>09.04.2022 Итог</t>
+  </si>
+  <si>
+    <t>11.04.2022 Итог</t>
+  </si>
+  <si>
+    <t>25.04.2022 Итог</t>
   </si>
 </sst>
 </file>
@@ -337,7 +365,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -363,9 +391,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -450,6 +475,13 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -473,10 +505,911 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-UA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Лист1 (2)'!$D$19,'Лист1 (2)'!$D$21,'Лист1 (2)'!$D$25,'Лист1 (2)'!$D$28,'Лист1 (2)'!$D$30,'Лист1 (2)'!$D$32,'Лист1 (2)'!$D$34)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>15.02.2022 Итог</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.02.2022 Итог</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.02.2022 Итог</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.03.2022 Итог</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>09.04.2022 Итог</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.04.2022 Итог</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.04.2022 Итог</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Лист1 (2)'!$E$19,'Лист1 (2)'!$E$21,'Лист1 (2)'!$E$25,'Лист1 (2)'!$E$28,'Лист1 (2)'!$E$30,'Лист1 (2)'!$E$32,'Лист1 (2)'!$E$34)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60A3-4CD4-8B32-E81F8C257E90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="869871648"/>
+        <c:axId val="870964192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="869871648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="870964192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="870964192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="869871648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-UA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>704849</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A40F68-36F1-4A39-8EB0-4591DC376BF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="qmerkyr" refreshedDate="44612.867143171294" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="16" xr:uid="{8058549E-0D51-4EC7-A9C4-3B7A0A64305C}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:I17" sheet="Лист1"/>
+    <worksheetSource ref="A1:I16" sheet="Основная"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Номер_x000a_ п/п" numFmtId="0">
@@ -516,7 +1449,20 @@
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="4"/>
     </cacheField>
     <cacheField name="Дата вильоту" numFmtId="0">
-      <sharedItems containsDate="1" containsString="0" containsBlank="1" containsMixedTypes="1" minDate="1899-12-31T00:21:04" maxDate="2022-04-26T00:00:00"/>
+      <sharedItems containsDate="1" containsString="0" containsBlank="1" containsMixedTypes="1" minDate="1899-12-31T00:21:04" maxDate="2022-04-26T00:00:00" count="12">
+        <n v="5"/>
+        <d v="2022-02-28T00:00:00"/>
+        <d v="2022-03-08T00:00:00"/>
+        <m/>
+        <d v="2022-02-20T00:00:00"/>
+        <d v="2022-04-01T00:00:00"/>
+        <d v="2022-04-09T00:00:00"/>
+        <d v="2022-04-25T00:00:00"/>
+        <d v="2022-03-16T00:00:00"/>
+        <d v="2022-04-17T00:00:00"/>
+        <d v="2022-02-15T00:00:00"/>
+        <d v="2022-03-24T00:00:00"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Кількість пасажирів, що вилітають" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="6" maxValue="660"/>
@@ -528,7 +1474,20 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="8" maxValue="18131.86813186813"/>
     </cacheField>
     <cacheField name="Отриманий прибуток, $" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9" maxValue="57234.274725274721"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9" maxValue="57234.274725274721" count="12">
+        <n v="9"/>
+        <n v="4368.131868131868"/>
+        <n v="8736.2637362637361"/>
+        <n v="4285.7142857142853"/>
+        <n v="3571.4285714285716"/>
+        <n v="15000"/>
+        <n v="18131.86813186813"/>
+        <n v="6868.131868131868"/>
+        <n v="25000"/>
+        <n v="4120.8791208791208"/>
+        <n v="8489.0109890109889"/>
+        <n v="57234.274725274721"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -546,182 +1505,338 @@
     <x v="0"/>
     <x v="0"/>
     <n v="4"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="6"/>
     <n v="7"/>
     <n v="8"/>
-    <n v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3"/>
     <x v="1"/>
     <x v="1"/>
     <s v="Сідоров С.С."/>
-    <d v="2022-02-28T00:00:00"/>
+    <x v="1"/>
     <n v="50"/>
     <n v="7950"/>
     <n v="13978.021978021978"/>
-    <n v="4368.131868131868"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="4"/>
     <x v="1"/>
     <x v="2"/>
     <s v="Петров П.П."/>
-    <d v="2022-03-08T00:00:00"/>
+    <x v="2"/>
     <n v="50"/>
     <n v="7950"/>
     <n v="13978.021978021978"/>
-    <n v="4368.131868131868"/>
+    <x v="1"/>
   </r>
   <r>
     <m/>
     <x v="2"/>
     <x v="3"/>
     <m/>
+    <x v="3"/>
     <m/>
     <m/>
     <m/>
-    <m/>
-    <n v="8736.2637362637361"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="2"/>
     <x v="3"/>
     <x v="4"/>
     <s v="Петров П.П."/>
-    <d v="2022-02-20T00:00:00"/>
+    <x v="4"/>
     <n v="60"/>
     <n v="6500"/>
     <n v="4285.7142857142853"/>
-    <n v="4285.7142857142853"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="7"/>
     <x v="3"/>
     <x v="5"/>
     <s v="Сідоров С.С."/>
-    <d v="2022-04-01T00:00:00"/>
+    <x v="5"/>
     <n v="50"/>
     <n v="6500"/>
     <n v="4285.7142857142853"/>
-    <n v="3571.4285714285716"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="8"/>
     <x v="3"/>
     <x v="6"/>
     <s v="Сідоров С.С."/>
-    <d v="2022-04-09T00:00:00"/>
+    <x v="6"/>
     <n v="50"/>
     <n v="6500"/>
     <n v="4285.7142857142853"/>
-    <n v="3571.4285714285716"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="10"/>
     <x v="3"/>
     <x v="7"/>
     <s v="Петров П.П."/>
-    <d v="2022-04-25T00:00:00"/>
+    <x v="7"/>
     <n v="50"/>
     <n v="6500"/>
     <n v="4285.7142857142853"/>
-    <n v="3571.4285714285716"/>
+    <x v="4"/>
   </r>
   <r>
     <m/>
     <x v="4"/>
     <x v="3"/>
     <m/>
+    <x v="3"/>
     <m/>
     <m/>
     <m/>
-    <m/>
-    <n v="15000"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="5"/>
     <x v="5"/>
     <x v="8"/>
     <s v="Іванов І.І."/>
-    <d v="2022-03-16T00:00:00"/>
+    <x v="8"/>
     <n v="660"/>
     <n v="2500"/>
     <n v="18131.86813186813"/>
-    <n v="18131.86813186813"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="9"/>
     <x v="5"/>
     <x v="9"/>
     <s v="Іванов І.І."/>
-    <d v="2022-04-17T00:00:00"/>
+    <x v="9"/>
     <n v="250"/>
     <n v="2500"/>
     <n v="18131.86813186813"/>
-    <n v="6868.131868131868"/>
+    <x v="7"/>
   </r>
   <r>
     <m/>
     <x v="6"/>
     <x v="3"/>
     <m/>
+    <x v="3"/>
     <m/>
     <m/>
     <m/>
-    <m/>
-    <n v="25000"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="1"/>
     <x v="7"/>
     <x v="10"/>
     <s v="Іванов І.І."/>
-    <d v="2022-02-15T00:00:00"/>
+    <x v="10"/>
     <n v="50"/>
     <n v="7500"/>
     <n v="4120.8791208791208"/>
-    <n v="4120.8791208791208"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="6"/>
     <x v="7"/>
     <x v="11"/>
     <s v="Петров П.П."/>
-    <d v="2022-03-24T00:00:00"/>
+    <x v="11"/>
     <n v="50"/>
     <n v="7950"/>
     <n v="4368.131868131868"/>
-    <n v="4368.131868131868"/>
+    <x v="1"/>
   </r>
   <r>
     <m/>
     <x v="8"/>
     <x v="3"/>
     <m/>
+    <x v="3"/>
     <m/>
     <m/>
     <m/>
-    <m/>
-    <n v="8489.0109890109889"/>
+    <x v="10"/>
   </r>
   <r>
     <m/>
     <x v="9"/>
     <x v="3"/>
     <m/>
+    <x v="3"/>
     <m/>
     <m/>
     <m/>
-    <m/>
-    <n v="57234.274725274721"/>
+    <x v="11"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D472B5C-8838-49D5-8AD6-2568D80E8901}" name="Сводная таблица1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{631FB891-6656-46DB-98D3-483CAA1E2276}" name="Сводная таблица3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:N15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="10">
+        <item n="0" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Сумма по полю Отриманий прибуток, $" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D472B5C-8838-49D5-8AD6-2568D80E8901}" name="Сводная таблица1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:AB6" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -1187,29 +2302,390 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5799616-A4BD-4760-A986-853424D4D6FD}">
-  <dimension ref="A1:I30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F44CB3-BDE4-4FD6-B9BE-3BFDFE8C02D9}">
+  <dimension ref="A3:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="24.21875" customWidth="1"/>
-    <col min="10" max="10" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>11111</v>
+      </c>
+      <c r="D4">
+        <v>15476</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="46">
+        <v>9</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46">
+        <v>4368.131868131868</v>
+      </c>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46">
+        <v>4368.131868131868</v>
+      </c>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46">
+        <v>8736.2637362637361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46">
+        <v>8736.2637362637361</v>
+      </c>
+      <c r="N7" s="46">
+        <v>8736.2637362637361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46">
+        <v>3571.4285714285716</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46">
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46">
+        <v>3571.4285714285716</v>
+      </c>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46">
+        <v>3571.4285714285716</v>
+      </c>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46">
+        <v>15000</v>
+      </c>
+      <c r="N9" s="46">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46">
+        <v>6868.131868131868</v>
+      </c>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46">
+        <v>18131.86813186813</v>
+      </c>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46">
+        <v>25000</v>
+      </c>
+      <c r="N11" s="46">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46">
+        <v>4120.8791208791208</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46">
+        <v>4368.131868131868</v>
+      </c>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46">
+        <v>8489.0109890109889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46">
+        <v>8489.0109890109889</v>
+      </c>
+      <c r="N13" s="46">
+        <v>8489.0109890109889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46">
+        <v>57234.274725274721</v>
+      </c>
+      <c r="N14" s="46">
+        <v>57234.274725274721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="46">
+        <v>9</v>
+      </c>
+      <c r="C15" s="46">
+        <v>4120.8791208791208</v>
+      </c>
+      <c r="D15" s="46">
+        <v>3571.4285714285716</v>
+      </c>
+      <c r="E15" s="46">
+        <v>6868.131868131868</v>
+      </c>
+      <c r="F15" s="46">
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="G15" s="46">
+        <v>4368.131868131868</v>
+      </c>
+      <c r="H15" s="46">
+        <v>3571.4285714285716</v>
+      </c>
+      <c r="I15" s="46">
+        <v>4368.131868131868</v>
+      </c>
+      <c r="J15" s="46">
+        <v>4368.131868131868</v>
+      </c>
+      <c r="K15" s="46">
+        <v>18131.86813186813</v>
+      </c>
+      <c r="L15" s="46">
+        <v>3571.4285714285716</v>
+      </c>
+      <c r="M15" s="46">
+        <v>114459.54945054944</v>
+      </c>
+      <c r="N15" s="46">
+        <v>171693.82417582418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5799616-A4BD-4760-A986-853424D4D6FD}">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1238,456 +2714,428 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row r="2" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>3</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="14">
+        <v>44620</v>
+      </c>
+      <c r="F2" s="15">
+        <v>50</v>
+      </c>
+      <c r="G2" s="16">
+        <v>7950</v>
+      </c>
+      <c r="H2" s="17">
+        <f>VLOOKUP(Основная!$B2,Вспомогательная!$A$3:$B$6,2,)*Основная!$G2*0.3/$A$29</f>
+        <v>13978.021978021978</v>
+      </c>
+      <c r="I2" s="18">
+        <f>Основная!$G2*Основная!$F2*0.3/$A$29</f>
+        <v>4368.131868131868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="20">
+        <v>44620</v>
+      </c>
+      <c r="F3" s="21">
+        <v>50</v>
+      </c>
+      <c r="G3" s="22">
+        <v>7950</v>
+      </c>
+      <c r="H3" s="23">
+        <f>VLOOKUP(Основная!$B3,Вспомогательная!$A$3:$B$6,2,)*Основная!$G3*0.3/$A$29</f>
+        <v>13978.021978021978</v>
+      </c>
+      <c r="I3" s="24">
+        <f>Основная!$G3*Основная!$F3*0.3/$A$29</f>
+        <v>4368.131868131868</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24">
+        <f>SUBTOTAL(9,I2:I3)</f>
+        <v>8736.2637362637361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="14">
+        <v>44612</v>
+      </c>
+      <c r="F5" s="15">
+        <v>60</v>
+      </c>
+      <c r="G5" s="16">
+        <v>6500</v>
+      </c>
+      <c r="H5" s="17">
+        <f>VLOOKUP(Основная!$B5,Вспомогательная!$A$3:$B$6,2,)*Основная!$G5*0.3/$A$29</f>
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="I5" s="18">
+        <f>Основная!$G5*Основная!$F5*0.3/$A$29</f>
+        <v>4285.7142857142853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="20">
+        <v>44644</v>
+      </c>
+      <c r="F6" s="21">
+        <v>50</v>
+      </c>
+      <c r="G6" s="22">
+        <v>6500</v>
+      </c>
+      <c r="H6" s="23">
+        <f>VLOOKUP(Основная!$B6,Вспомогательная!$A$3:$B$6,2,)*Основная!$G6*0.3/$A$29</f>
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="I6" s="24">
+        <f>Основная!$G6*Основная!$F6*0.3/$A$29</f>
+        <v>3571.4285714285716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>8</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="12">
+        <v>15476</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="14">
+        <v>44660</v>
+      </c>
+      <c r="F7" s="15">
+        <v>50</v>
+      </c>
+      <c r="G7" s="16">
+        <v>6500</v>
+      </c>
+      <c r="H7" s="17">
+        <f>VLOOKUP(Основная!$B7,Вспомогательная!$A$3:$B$6,2,)*Основная!$G7*0.3/$A$29</f>
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="I7" s="18">
+        <f>Основная!$G7*Основная!$F7*0.3/$A$29</f>
+        <v>3571.4285714285716</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>10</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="20">
+        <v>44676</v>
+      </c>
+      <c r="F8" s="21">
+        <v>50</v>
+      </c>
+      <c r="G8" s="22">
+        <v>6500</v>
+      </c>
+      <c r="H8" s="23">
+        <f>VLOOKUP(Основная!$B8,Вспомогательная!$A$3:$B$6,2,)*Основная!$G8*0.3/$A$29</f>
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="I8" s="24">
+        <f>Основная!$G8*Основная!$F8*0.3/$A$29</f>
+        <v>3571.4285714285716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24">
+        <f>SUBTOTAL(9,I5:I8)</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>5</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="14">
+        <v>44620</v>
+      </c>
+      <c r="F10" s="15">
+        <v>660</v>
+      </c>
+      <c r="G10" s="16">
+        <v>2500</v>
+      </c>
+      <c r="H10" s="17">
+        <f>VLOOKUP(Основная!$B10,Вспомогательная!$A$3:$B$6,2,)*Основная!$G10*0.3/$A$29</f>
+        <v>18131.86813186813</v>
+      </c>
+      <c r="I10" s="18">
+        <f>Основная!$G10*Основная!$F10*0.3/$A$29</f>
+        <v>18131.86813186813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="20">
+        <v>44662</v>
+      </c>
+      <c r="F11" s="21">
+        <v>250</v>
+      </c>
+      <c r="G11" s="22">
+        <v>2500</v>
+      </c>
+      <c r="H11" s="23">
+        <f>VLOOKUP(Основная!$B11,Вспомогательная!$A$3:$B$6,2,)*Основная!$G11*0.3/$A$29</f>
+        <v>18131.86813186813</v>
+      </c>
+      <c r="I11" s="24">
+        <f>Основная!$G11*Основная!$F11*0.3/$A$29</f>
+        <v>6868.131868131868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24">
+        <f>SUBTOTAL(9,I10:I11)</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10">
-        <v>3</v>
-      </c>
-      <c r="D2" s="10">
-        <v>4</v>
-      </c>
-      <c r="E2" s="10">
-        <v>5</v>
-      </c>
-      <c r="F2" s="10">
+      <c r="B13" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="12">
+        <v>11111</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14">
+        <v>44607</v>
+      </c>
+      <c r="F13" s="15">
+        <v>50</v>
+      </c>
+      <c r="G13" s="29">
+        <v>7500</v>
+      </c>
+      <c r="H13" s="17">
+        <f>VLOOKUP(Основная!$B13,Вспомогательная!$A$3:$B$6,2,)*Основная!$G13*0.3/$A$29</f>
+        <v>4120.8791208791208</v>
+      </c>
+      <c r="I13" s="18">
+        <f>Основная!$G13*Основная!$F13*0.3/$A$29</f>
+        <v>4120.8791208791208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
         <v>6</v>
       </c>
-      <c r="G2" s="10">
-        <v>7</v>
-      </c>
-      <c r="H2" s="10">
-        <v>8</v>
-      </c>
-      <c r="I2" s="11">
+      <c r="B14" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="32">
+        <v>44644</v>
+      </c>
+      <c r="F14" s="33">
+        <v>50</v>
+      </c>
+      <c r="G14" s="34">
+        <v>7950</v>
+      </c>
+      <c r="H14" s="35">
+        <f>VLOOKUP(Основная!$B14,Вспомогательная!$A$3:$B$6,2,)*Основная!$G14*0.3/$A$29</f>
+        <v>4368.131868131868</v>
+      </c>
+      <c r="I14" s="36">
+        <f>Основная!$G14*Основная!$F14*0.3/$A$29</f>
+        <v>4368.131868131868</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42">
+        <f>SUBTOTAL(9,I13:I14)</f>
+        <v>8489.0109890109889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42">
+        <f>SUBTOTAL(9,I2:I14)</f>
+        <v>57225.274725274721</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>3</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="15">
-        <v>44620</v>
-      </c>
-      <c r="F3" s="16">
-        <v>50</v>
-      </c>
-      <c r="G3" s="17">
-        <v>7950</v>
-      </c>
-      <c r="H3" s="18">
-        <f>VLOOKUP(Лист1!$B3,Лист2!$A$3:$B$6,2,)*Лист1!$G3*0.3/$A$30</f>
-        <v>13978.021978021978</v>
-      </c>
-      <c r="I3" s="19">
-        <f>Лист1!$G3*Лист1!$F3*0.3/$A$30</f>
-        <v>4368.131868131868</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="21">
-        <v>44620</v>
-      </c>
-      <c r="F4" s="22">
-        <v>50</v>
-      </c>
-      <c r="G4" s="23">
-        <v>7950</v>
-      </c>
-      <c r="H4" s="24">
-        <f>VLOOKUP(Лист1!$B4,Лист2!$A$3:$B$6,2,)*Лист1!$G4*0.3/$A$30</f>
-        <v>13978.021978021978</v>
-      </c>
-      <c r="I4" s="25">
-        <f>Лист1!$G4*Лист1!$F4*0.3/$A$30</f>
-        <v>4368.131868131868</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25">
-        <f>SUBTOTAL(9,I3:I4)</f>
-        <v>8736.2637362637361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>2</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="15">
-        <v>44612</v>
-      </c>
-      <c r="F6" s="16">
-        <v>60</v>
-      </c>
-      <c r="G6" s="17">
-        <v>6500</v>
-      </c>
-      <c r="H6" s="18">
-        <f>VLOOKUP(Лист1!$B6,Лист2!$A$3:$B$6,2,)*Лист1!$G6*0.3/$A$30</f>
-        <v>4285.7142857142853</v>
-      </c>
-      <c r="I6" s="19">
-        <f>Лист1!$G6*Лист1!$F6*0.3/$A$30</f>
-        <v>4285.7142857142853</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>7</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="21">
-        <v>44644</v>
-      </c>
-      <c r="F7" s="22">
-        <v>50</v>
-      </c>
-      <c r="G7" s="23">
-        <v>6500</v>
-      </c>
-      <c r="H7" s="24">
-        <f>VLOOKUP(Лист1!$B7,Лист2!$A$3:$B$6,2,)*Лист1!$G7*0.3/$A$30</f>
-        <v>4285.7142857142853</v>
-      </c>
-      <c r="I7" s="25">
-        <f>Лист1!$G7*Лист1!$F7*0.3/$A$30</f>
-        <v>3571.4285714285716</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>8</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="13">
-        <v>15476</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="15">
-        <v>44660</v>
-      </c>
-      <c r="F8" s="16">
-        <v>50</v>
-      </c>
-      <c r="G8" s="17">
-        <v>6500</v>
-      </c>
-      <c r="H8" s="18">
-        <f>VLOOKUP(Лист1!$B8,Лист2!$A$3:$B$6,2,)*Лист1!$G8*0.3/$A$30</f>
-        <v>4285.7142857142853</v>
-      </c>
-      <c r="I8" s="19">
-        <f>Лист1!$G8*Лист1!$F8*0.3/$A$30</f>
-        <v>3571.4285714285716</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>10</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="21">
-        <v>44676</v>
-      </c>
-      <c r="F9" s="22">
-        <v>50</v>
-      </c>
-      <c r="G9" s="23">
-        <v>6500</v>
-      </c>
-      <c r="H9" s="24">
-        <f>VLOOKUP(Лист1!$B9,Лист2!$A$3:$B$6,2,)*Лист1!$G9*0.3/$A$30</f>
-        <v>4285.7142857142853</v>
-      </c>
-      <c r="I9" s="25">
-        <f>Лист1!$G9*Лист1!$F9*0.3/$A$30</f>
-        <v>3571.4285714285716</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25">
-        <f>SUBTOTAL(9,I6:I9)</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>5</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="15">
-        <v>44620</v>
-      </c>
-      <c r="F11" s="16">
-        <v>660</v>
-      </c>
-      <c r="G11" s="17">
-        <v>2500</v>
-      </c>
-      <c r="H11" s="18">
-        <f>VLOOKUP(Лист1!$B11,Лист2!$A$3:$B$6,2,)*Лист1!$G11*0.3/$A$30</f>
-        <v>18131.86813186813</v>
-      </c>
-      <c r="I11" s="19">
-        <f>Лист1!$G11*Лист1!$F11*0.3/$A$30</f>
-        <v>18131.86813186813</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>9</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="21">
-        <v>44662</v>
-      </c>
-      <c r="F12" s="22">
-        <v>250</v>
-      </c>
-      <c r="G12" s="23">
-        <v>2500</v>
-      </c>
-      <c r="H12" s="24">
-        <f>VLOOKUP(Лист1!$B12,Лист2!$A$3:$B$6,2,)*Лист1!$G12*0.3/$A$30</f>
-        <v>18131.86813186813</v>
-      </c>
-      <c r="I12" s="25">
-        <f>Лист1!$G12*Лист1!$F12*0.3/$A$30</f>
-        <v>6868.131868131868</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25">
-        <f>SUBTOTAL(9,I11:I12)</f>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>1</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="13">
-        <v>11111</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="15">
-        <v>44607</v>
-      </c>
-      <c r="F14" s="16">
-        <v>50</v>
-      </c>
-      <c r="G14" s="30">
-        <v>7500</v>
-      </c>
-      <c r="H14" s="18">
-        <f>VLOOKUP(Лист1!$B14,Лист2!$A$3:$B$6,2,)*Лист1!$G14*0.3/$A$30</f>
-        <v>4120.8791208791208</v>
-      </c>
-      <c r="I14" s="19">
-        <f>Лист1!$G14*Лист1!$F14*0.3/$A$30</f>
-        <v>4120.8791208791208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A15" s="31">
-        <v>6</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="33">
-        <v>44644</v>
-      </c>
-      <c r="F15" s="34">
-        <v>50</v>
-      </c>
-      <c r="G15" s="35">
-        <v>7950</v>
-      </c>
-      <c r="H15" s="36">
-        <f>VLOOKUP(Лист1!$B15,Лист2!$A$3:$B$6,2,)*Лист1!$G15*0.3/$A$30</f>
-        <v>4368.131868131868</v>
-      </c>
-      <c r="I15" s="37">
-        <f>Лист1!$G15*Лист1!$F15*0.3/$A$30</f>
-        <v>4368.131868131868</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43">
-        <f>SUBTOTAL(9,I14:I15)</f>
-        <v>8489.0109890109889</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43">
-        <f>SUBTOTAL(9,I2:I15)</f>
-        <v>57234.274725274721</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>27.3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I15" xr:uid="{8329D174-3D3B-48FA-9233-44CF89F00C1A}"/>
+  <autoFilter ref="A1:I14" xr:uid="{8329D174-3D3B-48FA-9233-44CF89F00C1A}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20" xr:uid="{2C85C747-D60C-4429-8828-B56607124A87}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19" xr:uid="{2C85C747-D60C-4429-8828-B56607124A87}">
       <formula1>0</formula1>
-      <formula2>C20</formula2>
+      <formula2>C19</formula2>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не коректная дата" error="Дата должна быть больше чем сегоднешняя" promptTitle="Дата больше сегодняшней" sqref="E3:E4 E6:E9 E11:E12 E14:E15" xr:uid="{03EFA30A-617D-44B0-B00C-296EB722801B}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не коректная дата" error="Дата должна быть больше чем сегоднешняя" promptTitle="Дата больше сегодняшней" sqref="E2:E3 E5:E8 E10:E11 E13:E14" xr:uid="{03EFA30A-617D-44B0-B00C-296EB722801B}">
       <formula1>TODAY()</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно" error="Не верная длина поля" promptTitle="Длина рейса" prompt="Длина рейса не меньше 1 и не больше 5" sqref="C3:C4 C6:C9 C11:C12 C14:C15" xr:uid="{EBF4BC07-2D01-43A4-9ADE-13E2CF3E1790}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно" error="Не верная длина поля" promptTitle="Длина рейса" prompt="Длина рейса не меньше 1 и не больше 5" sqref="C2:C3 C5:C8 C10:C11 C13:C14" xr:uid="{EBF4BC07-2D01-43A4-9ADE-13E2CF3E1790}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
@@ -1696,90 +3144,90 @@
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$3,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$2,Вспомогательная!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F3</xm:sqref>
+          <xm:sqref>F2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{3D136A7C-04B2-4A78-9ADE-B3CC10D650B6}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$4,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$3,Вспомогательная!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F4</xm:sqref>
+          <xm:sqref>F3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{AF925862-A5F5-4DCC-8B6C-7DB85C1736FE}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$6,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$5,Вспомогательная!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F6</xm:sqref>
+          <xm:sqref>F5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{431D507A-3AE2-46F4-997C-3C7FE028517B}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$7,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$6,Вспомогательная!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F7</xm:sqref>
+          <xm:sqref>F6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{0481C4D3-3110-45D8-8803-CA8FC54E1441}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$8,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$7,Вспомогательная!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F8</xm:sqref>
+          <xm:sqref>F7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{0B64AEC1-AED3-4780-A2AF-963386866B97}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$9,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$8,Вспомогательная!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F9</xm:sqref>
+          <xm:sqref>F8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{F263D157-CDB8-4006-A0B4-E68D7745D41D}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$11,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$10,Вспомогательная!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F11</xm:sqref>
+          <xm:sqref>F10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{F9DC2FAF-1A3F-46FF-859C-AA107A77B2F0}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$12,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$11,Вспомогательная!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F12</xm:sqref>
+          <xm:sqref>F11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{51C753DF-B0FA-4A15-9B58-9A50A9BC56B5}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$14,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$13,Вспомогательная!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F14</xm:sqref>
+          <xm:sqref>F13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{D71A24E6-24CA-446D-A938-9FF569A282C5}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$15,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$14,Вспомогательная!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F15</xm:sqref>
+          <xm:sqref>F14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1787,30 +3235,129 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D01E49-A145-4516-A1BC-6394AD4EFD38}">
-  <dimension ref="A1:I25"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E67AF-CFB6-438A-B929-F545E3C3BEC8}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="24.21875" customWidth="1"/>
-    <col min="10" max="10" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
+        <v>160</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>660</v>
+      </c>
+      <c r="C6" s="2">
+        <v>19333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D01E49-A145-4516-A1BC-6394AD4EFD38}">
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1839,375 +3386,529 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="12">
+        <v>11111</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="14">
+        <v>44607</v>
+      </c>
+      <c r="F2" s="15">
+        <v>50</v>
+      </c>
+      <c r="G2" s="29">
+        <v>7500</v>
+      </c>
+      <c r="H2" s="17">
+        <f>VLOOKUP('Лист1 (2)'!$B10,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G10*0.3/$A$26</f>
+        <v>18131.86813186813</v>
+      </c>
+      <c r="I2" s="18">
+        <f>'Лист1 (2)'!$G10*'Лист1 (2)'!$F10*0.3/$A$26</f>
+        <v>6868.131868131868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="C2" s="10">
+      <c r="B3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="14">
+        <v>44612</v>
+      </c>
+      <c r="F3" s="15">
+        <v>60</v>
+      </c>
+      <c r="G3" s="16">
+        <v>6500</v>
+      </c>
+      <c r="H3" s="17">
+        <f>VLOOKUP('Лист1 (2)'!$B4,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G4*0.3/$A$26</f>
+        <v>13978.021978021978</v>
+      </c>
+      <c r="I3" s="18">
+        <f>'Лист1 (2)'!$G4*'Лист1 (2)'!$F4*0.3/$A$26</f>
+        <v>4368.131868131868</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="D2" s="10">
+      <c r="B4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="14">
+        <v>44620</v>
+      </c>
+      <c r="F4" s="15">
+        <v>50</v>
+      </c>
+      <c r="G4" s="16">
+        <v>7950</v>
+      </c>
+      <c r="H4" s="17">
+        <f>VLOOKUP('Лист1 (2)'!$B2,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G2*0.3/$A$26</f>
+        <v>4120.8791208791208</v>
+      </c>
+      <c r="I4" s="18">
+        <f>'Лист1 (2)'!$G2*'Лист1 (2)'!$F2*0.3/$A$26</f>
+        <v>4120.8791208791208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="E2" s="10">
+      <c r="B5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="20">
+        <v>44620</v>
+      </c>
+      <c r="F5" s="21">
+        <v>50</v>
+      </c>
+      <c r="G5" s="22">
+        <v>7950</v>
+      </c>
+      <c r="H5" s="23">
+        <f>VLOOKUP('Лист1 (2)'!$B3,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G3*0.3/$A$26</f>
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="I5" s="24">
+        <f>'Лист1 (2)'!$G3*'Лист1 (2)'!$F3*0.3/$A$26</f>
+        <v>4285.7142857142853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="F2" s="10">
+      <c r="B6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="14">
+        <v>44620</v>
+      </c>
+      <c r="F6" s="15">
+        <v>660</v>
+      </c>
+      <c r="G6" s="16">
+        <v>2500</v>
+      </c>
+      <c r="H6" s="17">
+        <f>VLOOKUP('Лист1 (2)'!$B8,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G8*0.3/$A$26</f>
+        <v>4368.131868131868</v>
+      </c>
+      <c r="I6" s="18">
+        <f>'Лист1 (2)'!$G8*'Лист1 (2)'!$F8*0.3/$A$26</f>
+        <v>4368.131868131868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>7</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="20">
+        <v>44644</v>
+      </c>
+      <c r="F7" s="21">
+        <v>50</v>
+      </c>
+      <c r="G7" s="22">
+        <v>6500</v>
+      </c>
+      <c r="H7" s="23">
+        <f>VLOOKUP('Лист1 (2)'!$B5,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G5*0.3/$A$26</f>
+        <v>13978.021978021978</v>
+      </c>
+      <c r="I7" s="24">
+        <f>'Лист1 (2)'!$G5*'Лист1 (2)'!$F5*0.3/$A$26</f>
+        <v>4368.131868131868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="G2" s="10">
-        <v>7</v>
-      </c>
-      <c r="H2" s="10">
+      <c r="B8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="20">
+        <v>44644</v>
+      </c>
+      <c r="F8" s="21">
+        <v>50</v>
+      </c>
+      <c r="G8" s="22">
+        <v>7950</v>
+      </c>
+      <c r="H8" s="23">
+        <f>VLOOKUP('Лист1 (2)'!$B11,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G11*0.3/$A$26</f>
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="I8" s="24">
+        <f>'Лист1 (2)'!$G11*'Лист1 (2)'!$F11*0.3/$A$26</f>
+        <v>3571.4285714285716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="I2" s="11">
+      <c r="B9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="12">
+        <v>15476</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="14">
+        <v>44660</v>
+      </c>
+      <c r="F9" s="15">
+        <v>50</v>
+      </c>
+      <c r="G9" s="16">
+        <v>6500</v>
+      </c>
+      <c r="H9" s="17">
+        <f>VLOOKUP('Лист1 (2)'!$B6,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G6*0.3/$A$26</f>
+        <v>18131.86813186813</v>
+      </c>
+      <c r="I9" s="18">
+        <f>'Лист1 (2)'!$G6*'Лист1 (2)'!$F6*0.3/$A$26</f>
+        <v>18131.86813186813</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="13">
-        <v>11111</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="B10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E10" s="20">
+        <v>44662</v>
+      </c>
+      <c r="F10" s="21">
+        <v>250</v>
+      </c>
+      <c r="G10" s="22">
+        <v>2500</v>
+      </c>
+      <c r="H10" s="23">
+        <f>VLOOKUP('Лист1 (2)'!$B9,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G9*0.3/$A$26</f>
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="I10" s="24">
+        <f>'Лист1 (2)'!$G9*'Лист1 (2)'!$F9*0.3/$A$26</f>
+        <v>3571.4285714285716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>10</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="32">
+        <v>44676</v>
+      </c>
+      <c r="F11" s="33">
+        <v>50</v>
+      </c>
+      <c r="G11" s="34">
+        <v>6500</v>
+      </c>
+      <c r="H11" s="35">
+        <f>VLOOKUP('Лист1 (2)'!$B7,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G7*0.3/$A$26</f>
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="I11" s="36">
+        <f>'Лист1 (2)'!$G7*'Лист1 (2)'!$F7*0.3/$A$26</f>
+        <v>3571.4285714285716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C17" s="50"/>
+      <c r="D17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="50"/>
+      <c r="D18" s="14">
         <v>44607</v>
       </c>
-      <c r="F3" s="16">
+      <c r="E18" s="15">
         <v>50</v>
       </c>
-      <c r="G3" s="30">
-        <v>7500</v>
-      </c>
-      <c r="H3" s="18">
-        <f>VLOOKUP('Лист1 (2)'!$B11,Лист2!$A$3:$B$6,2,)*'Лист1 (2)'!$G11*0.3/$A$25</f>
-        <v>18131.86813186813</v>
-      </c>
-      <c r="I3" s="19">
-        <f>'Лист1 (2)'!$G11*'Лист1 (2)'!$F11*0.3/$A$25</f>
-        <v>6868.131868131868</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="15">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="50"/>
+      <c r="D19" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="15">
+        <f>SUBTOTAL(9,E18:E18)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="50"/>
+      <c r="D20" s="14">
         <v>44612</v>
       </c>
-      <c r="F4" s="16">
+      <c r="E20" s="15">
         <v>60</v>
       </c>
-      <c r="G4" s="17">
-        <v>6500</v>
-      </c>
-      <c r="H4" s="18">
-        <f>VLOOKUP('Лист1 (2)'!$B5,Лист2!$A$3:$B$6,2,)*'Лист1 (2)'!$G5*0.3/$A$25</f>
-        <v>13978.021978021978</v>
-      </c>
-      <c r="I4" s="19">
-        <f>'Лист1 (2)'!$G5*'Лист1 (2)'!$F5*0.3/$A$25</f>
-        <v>4368.131868131868</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="15">
+    </row>
+    <row r="21" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C21" s="50"/>
+      <c r="D21" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="15">
+        <f>SUBTOTAL(9,E20:E20)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="50"/>
+      <c r="D22" s="14">
         <v>44620</v>
       </c>
-      <c r="F5" s="16">
+      <c r="E22" s="15">
         <v>50</v>
       </c>
-      <c r="G5" s="17">
-        <v>7950</v>
-      </c>
-      <c r="H5" s="18">
-        <f>VLOOKUP('Лист1 (2)'!$B3,Лист2!$A$3:$B$6,2,)*'Лист1 (2)'!$G3*0.3/$A$25</f>
-        <v>4120.8791208791208</v>
-      </c>
-      <c r="I5" s="19">
-        <f>'Лист1 (2)'!$G3*'Лист1 (2)'!$F3*0.3/$A$25</f>
-        <v>4120.8791208791208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="21">
+    </row>
+    <row r="23" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C23" s="50"/>
+      <c r="D23" s="20">
         <v>44620</v>
       </c>
-      <c r="F6" s="22">
+      <c r="E23" s="21">
         <v>50</v>
       </c>
-      <c r="G6" s="23">
-        <v>7950</v>
-      </c>
-      <c r="H6" s="24">
-        <f>VLOOKUP('Лист1 (2)'!$B4,Лист2!$A$3:$B$6,2,)*'Лист1 (2)'!$G4*0.3/$A$25</f>
-        <v>4285.7142857142853</v>
-      </c>
-      <c r="I6" s="25">
-        <f>'Лист1 (2)'!$G4*'Лист1 (2)'!$F4*0.3/$A$25</f>
-        <v>4285.7142857142853</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="15">
+    </row>
+    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="50"/>
+      <c r="D24" s="14">
         <v>44620</v>
       </c>
-      <c r="F7" s="16">
+      <c r="E24" s="15">
         <v>660</v>
       </c>
-      <c r="G7" s="17">
-        <v>2500</v>
-      </c>
-      <c r="H7" s="18">
-        <f>VLOOKUP('Лист1 (2)'!$B9,Лист2!$A$3:$B$6,2,)*'Лист1 (2)'!$G9*0.3/$A$25</f>
-        <v>4368.131868131868</v>
-      </c>
-      <c r="I7" s="19">
-        <f>'Лист1 (2)'!$G9*'Лист1 (2)'!$F9*0.3/$A$25</f>
-        <v>4368.131868131868</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="21">
+    </row>
+    <row r="25" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="15">
+        <f>SUBTOTAL(9,E22:E24)</f>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>27.3</v>
+      </c>
+      <c r="D26" s="20">
         <v>44644</v>
       </c>
-      <c r="F8" s="22">
+      <c r="E26" s="21">
         <v>50</v>
       </c>
-      <c r="G8" s="23">
-        <v>6500</v>
-      </c>
-      <c r="H8" s="24">
-        <f>VLOOKUP('Лист1 (2)'!$B6,Лист2!$A$3:$B$6,2,)*'Лист1 (2)'!$G6*0.3/$A$25</f>
-        <v>13978.021978021978</v>
-      </c>
-      <c r="I8" s="25">
-        <f>'Лист1 (2)'!$G6*'Лист1 (2)'!$F6*0.3/$A$25</f>
-        <v>4368.131868131868</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="21">
+    </row>
+    <row r="27" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D27" s="20">
         <v>44644</v>
       </c>
-      <c r="F9" s="22">
+      <c r="E27" s="21">
         <v>50</v>
       </c>
-      <c r="G9" s="23">
-        <v>7950</v>
-      </c>
-      <c r="H9" s="24">
-        <f>VLOOKUP('Лист1 (2)'!$B12,Лист2!$A$3:$B$6,2,)*'Лист1 (2)'!$G12*0.3/$A$25</f>
-        <v>4285.7142857142853</v>
-      </c>
-      <c r="I9" s="25">
-        <f>'Лист1 (2)'!$G12*'Лист1 (2)'!$F12*0.3/$A$25</f>
-        <v>3571.4285714285716</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="13">
-        <v>15476</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="15">
+    </row>
+    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="21">
+        <f>SUBTOTAL(9,E26:E27)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D29" s="14">
         <v>44660</v>
       </c>
-      <c r="F10" s="16">
+      <c r="E29" s="15">
         <v>50</v>
       </c>
-      <c r="G10" s="17">
-        <v>6500</v>
-      </c>
-      <c r="H10" s="18">
-        <f>VLOOKUP('Лист1 (2)'!$B7,Лист2!$A$3:$B$6,2,)*'Лист1 (2)'!$G7*0.3/$A$25</f>
-        <v>18131.86813186813</v>
-      </c>
-      <c r="I10" s="19">
-        <f>'Лист1 (2)'!$G7*'Лист1 (2)'!$F7*0.3/$A$25</f>
-        <v>18131.86813186813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="21">
+    </row>
+    <row r="30" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C30" s="50"/>
+      <c r="D30" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="15">
+        <f>SUBTOTAL(9,E29:E29)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="50"/>
+      <c r="D31" s="20">
         <v>44662</v>
       </c>
-      <c r="F11" s="22">
+      <c r="E31" s="21">
         <v>250</v>
       </c>
-      <c r="G11" s="23">
-        <v>2500</v>
-      </c>
-      <c r="H11" s="24">
-        <f>VLOOKUP('Лист1 (2)'!$B10,Лист2!$A$3:$B$6,2,)*'Лист1 (2)'!$G10*0.3/$A$25</f>
-        <v>4285.7142857142853</v>
-      </c>
-      <c r="I11" s="25">
-        <f>'Лист1 (2)'!$G10*'Лист1 (2)'!$F10*0.3/$A$25</f>
-        <v>3571.4285714285716</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="31">
-        <v>10</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="33">
+    </row>
+    <row r="32" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C32" s="50"/>
+      <c r="D32" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="21">
+        <f>SUBTOTAL(9,E31:E31)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="50"/>
+      <c r="D33" s="32">
         <v>44676</v>
       </c>
-      <c r="F12" s="34">
+      <c r="E33" s="33">
         <v>50</v>
       </c>
-      <c r="G12" s="35">
-        <v>6500</v>
-      </c>
-      <c r="H12" s="36">
-        <f>VLOOKUP('Лист1 (2)'!$B8,Лист2!$A$3:$B$6,2,)*'Лист1 (2)'!$G8*0.3/$A$25</f>
-        <v>4285.7142857142853</v>
-      </c>
-      <c r="I12" s="37">
-        <f>'Лист1 (2)'!$G8*'Лист1 (2)'!$F8*0.3/$A$25</f>
-        <v>3571.4285714285716</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>27.3</v>
-      </c>
+    </row>
+    <row r="34" spans="3:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C34" s="50"/>
+      <c r="D34" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="40">
+        <f>SUBTOTAL(9,E33:E33)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="50"/>
+      <c r="D35" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="40">
+        <f>SUBTOTAL(9,E18:E33)</f>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C36" s="50"/>
+    </row>
+    <row r="37" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="50"/>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="50"/>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="50"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I12" xr:uid="{8329D174-3D3B-48FA-9233-44CF89F00C1A}">
-    <sortState ref="A2:I12">
-      <sortCondition ref="E1:E12"/>
+  <autoFilter ref="A1:I11" xr:uid="{8329D174-3D3B-48FA-9233-44CF89F00C1A}">
+    <sortState ref="A2:I11">
+      <sortCondition ref="E1:E11"/>
     </sortState>
   </autoFilter>
   <dataValidations count="3">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно" error="Не верная длина поля" promptTitle="Длина рейса" prompt="Длина рейса не меньше 1 и не больше 5" sqref="C3:C4 C5:C8 C9:C10 C11:C12" xr:uid="{33654687-4320-4113-AE56-C51D70C5EA4D}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно" error="Не верная длина поля" promptTitle="Длина рейса" prompt="Длина рейса не меньше 1 и не больше 5" sqref="C2:C11" xr:uid="{33654687-4320-4113-AE56-C51D70C5EA4D}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не коректная дата" error="Дата должна быть больше чем сегоднешняя" promptTitle="Дата больше сегодняшней" sqref="E3:E4 E5:E8 E9:E10 E11:E12" xr:uid="{6B5769E8-E61A-4816-A629-D16680756FCE}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не коректная дата" error="Дата должна быть больше чем сегоднешняя" promptTitle="Дата больше сегодняшней" sqref="E2:E11 D18 D20 D22:D24 D26:D27 D29 D31 D33" xr:uid="{6B5769E8-E61A-4816-A629-D16680756FCE}">
       <formula1>TODAY()</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{45D46584-04ED-4761-BF8D-6C6407A8348F}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{45D46584-04ED-4761-BF8D-6C6407A8348F}">
       <formula1>0</formula1>
-      <formula2>C15</formula2>
+      <formula2>C14</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2220,90 +3921,90 @@
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$12,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$11,Вспомогательная!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F12</xm:sqref>
+          <xm:sqref>F11 E33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{4A257C24-C635-484F-9D7E-F09B7E9669B7}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$11,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$10,Вспомогательная!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F11</xm:sqref>
+          <xm:sqref>F10 E31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{81E4C56B-0EA7-4B6A-B694-C7489E8D70A4}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$10,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$9,Вспомогательная!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F10</xm:sqref>
+          <xm:sqref>F9 E29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{C8B17DEC-CCF4-4A27-844F-302F59F60299}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$9,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$8,Вспомогательная!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F9</xm:sqref>
+          <xm:sqref>F8 E27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{B1427212-504A-4FB7-AE7E-4C927A875227}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$8,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$7,Вспомогательная!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F8</xm:sqref>
+          <xm:sqref>F7 E26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{A5BFB321-C993-4CB1-ACEF-E5D8CF62A5C1}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$7,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$6,Вспомогательная!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F7</xm:sqref>
+          <xm:sqref>F6 E24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{95139B5F-EFA4-454B-B7E8-12E13DE17264}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$6,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$5,Вспомогательная!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F6</xm:sqref>
+          <xm:sqref>F5 E23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{5285EA14-2C89-4498-9C8A-897A9FD282AF}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$5,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$4,Вспомогательная!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F5</xm:sqref>
+          <xm:sqref>F4 E22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{628F0FB3-41E7-4CAC-9DBD-B9246406AF2B}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$4,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$3,Вспомогательная!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F4</xm:sqref>
+          <xm:sqref>F3 E20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{41F67397-F33B-4AC7-8C82-69CF8B2E0D9D}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
           <x14:formula2>
-            <xm:f>VLOOKUP($B$3,Лист2!$A$3:$B$6,2,)</xm:f>
+            <xm:f>VLOOKUP($B$2,Вспомогательная!$A$3:$B$6,2,)</xm:f>
           </x14:formula2>
-          <xm:sqref>F3</xm:sqref>
+          <xm:sqref>F2 E18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2311,148 +4012,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E67AF-CFB6-438A-B929-F545E3C3BEC8}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2">
-        <v>160</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3467</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2">
-        <v>60</v>
-      </c>
-      <c r="C4" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2">
-        <v>50</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2">
-        <v>660</v>
-      </c>
-      <c r="C6" s="2">
-        <v>19333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D33D4FA-88CD-4DB5-B883-54CA3A1A46FE}">
   <dimension ref="A3:AB6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B3" s="48" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B3" s="47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -2517,7 +4119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -2567,89 +4169,89 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="46">
         <v>9</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="46">
         <v>9</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="46">
         <v>4368.131868131868</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="46">
         <v>4368.131868131868</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="46">
         <v>8736.2637362637361</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="46">
         <v>8736.2637362637361</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="46">
         <v>8736.2637362637361</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="46">
         <v>3571.4285714285716</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="46">
         <v>4285.7142857142853</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="46">
         <v>3571.4285714285716</v>
       </c>
-      <c r="L6" s="47">
+      <c r="L6" s="46">
         <v>3571.4285714285716</v>
       </c>
-      <c r="M6" s="47">
+      <c r="M6" s="46">
         <v>15000</v>
       </c>
-      <c r="N6" s="47">
+      <c r="N6" s="46">
         <v>15000</v>
       </c>
-      <c r="O6" s="47">
+      <c r="O6" s="46">
         <v>15000</v>
       </c>
-      <c r="P6" s="47">
+      <c r="P6" s="46">
         <v>6868.131868131868</v>
       </c>
-      <c r="Q6" s="47">
+      <c r="Q6" s="46">
         <v>18131.86813186813</v>
       </c>
-      <c r="R6" s="47">
+      <c r="R6" s="46">
         <v>25000</v>
       </c>
-      <c r="S6" s="47">
+      <c r="S6" s="46">
         <v>25000</v>
       </c>
-      <c r="T6" s="47">
+      <c r="T6" s="46">
         <v>25000</v>
       </c>
-      <c r="U6" s="47">
+      <c r="U6" s="46">
         <v>4120.8791208791208</v>
       </c>
-      <c r="V6" s="47">
+      <c r="V6" s="46">
         <v>4368.131868131868</v>
       </c>
-      <c r="W6" s="47">
+      <c r="W6" s="46">
         <v>8489.0109890109889</v>
       </c>
-      <c r="X6" s="47">
+      <c r="X6" s="46">
         <v>8489.0109890109889</v>
       </c>
-      <c r="Y6" s="47">
+      <c r="Y6" s="46">
         <v>8489.0109890109889</v>
       </c>
-      <c r="Z6" s="47">
+      <c r="Z6" s="46">
         <v>57234.274725274721</v>
       </c>
-      <c r="AA6" s="47">
+      <c r="AA6" s="46">
         <v>57234.274725274721</v>
       </c>
-      <c r="AB6" s="47">
+      <c r="AB6" s="46">
         <v>171693.82417582418</v>
       </c>
     </row>

--- a/Office/1.xlsx
+++ b/Office/1.xlsx
@@ -2,30 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.1\Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D0C718-3858-471D-9720-4B33CCC791CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFF6955-40E9-47BC-8AE5-46C3D2BA1CC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12675" yWindow="735" windowWidth="21600" windowHeight="11385" tabRatio="619" activeTab="1" xr2:uid="{E599AE80-615C-4B6C-9C1F-E854D84AE947}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="619" xr2:uid="{E599AE80-615C-4B6C-9C1F-E854D84AE947}"/>
   </bookViews>
   <sheets>
-    <sheet name="Сводная" sheetId="10" r:id="rId1"/>
-    <sheet name="Основная" sheetId="1" r:id="rId2"/>
-    <sheet name="Вспомогательная" sheetId="2" r:id="rId3"/>
+    <sheet name="Основная" sheetId="1" r:id="rId1"/>
+    <sheet name="Вспомогательная" sheetId="2" r:id="rId2"/>
+    <sheet name="Сводная" sheetId="10" r:id="rId3"/>
     <sheet name="Лист1 (2)" sheetId="6" r:id="rId4"/>
     <sheet name="Лист4" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Лист1 (2)'!$A$1:$I$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Основная!$A$1:$I$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Основная!$A$1:$I$14</definedName>
+    <definedName name="dollar">Основная!$A$29</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -472,9 +473,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -482,6 +480,7 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -519,37 +518,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-UA"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -601,30 +570,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Лист1 (2)'!$E$19,'Лист1 (2)'!$E$21,'Лист1 (2)'!$E$25,'Лист1 (2)'!$E$28,'Лист1 (2)'!$E$30,'Лист1 (2)'!$E$32,'Лист1 (2)'!$E$34)</c:f>
+              <c:f>('Лист1 (2)'!$F$19,'Лист1 (2)'!$F$21,'Лист1 (2)'!$F$25,'Лист1 (2)'!$F$28,'Лист1 (2)'!$F$30,'Лист1 (2)'!$F$32,'Лист1 (2)'!$F$34)</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>3.7878787878787881</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>4.5454545454545459</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>760</c:v>
+                  <c:v>57.575757575757578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>7.5757575757575761</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>3.7878787878787881</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250</c:v>
+                  <c:v>18.939393939393938</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>3.7878787878787881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -632,7 +601,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-60A3-4CD4-8B32-E81F8C257E90}"/>
+              <c16:uniqueId val="{00000000-A570-4750-A481-E03563AE126D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -645,11 +614,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="869871648"/>
-        <c:axId val="870964192"/>
+        <c:axId val="295351551"/>
+        <c:axId val="289978767"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="869871648"/>
+        <c:axId val="295351551"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -692,7 +661,7 @@
             <a:endParaRPr lang="ru-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="870964192"/>
+        <c:crossAx val="289978767"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -700,7 +669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="870964192"/>
+        <c:axId val="289978767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -720,7 +689,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -751,7 +720,7 @@
             <a:endParaRPr lang="ru-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="869871648"/>
+        <c:crossAx val="295351551"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1367,23 +1336,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>704849</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Диаграмма 7">
+        <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A40F68-36F1-4A39-8EB0-4591DC376BF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60A5A32-E8D0-477C-A25C-103642894381}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1680,7 +1649,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{631FB891-6656-46DB-98D3-483CAA1E2276}" name="Сводная таблица3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{631FB891-6656-46DB-98D3-483CAA1E2276}" name="Сводная таблица3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:N15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -1836,7 +1805,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D472B5C-8838-49D5-8AD6-2568D80E8901}" name="Сводная таблица1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D472B5C-8838-49D5-8AD6-2568D80E8901}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:AB6" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -2302,373 +2271,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F44CB3-BDE4-4FD6-B9BE-3BFDFE8C02D9}">
-  <dimension ref="A3:N15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>11111</v>
-      </c>
-      <c r="D4">
-        <v>15476</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="46">
-        <v>9</v>
-      </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46">
-        <v>4368.131868131868</v>
-      </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46">
-        <v>4368.131868131868</v>
-      </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46">
-        <v>8736.2637362637361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46">
-        <v>8736.2637362637361</v>
-      </c>
-      <c r="N7" s="46">
-        <v>8736.2637362637361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46">
-        <v>3571.4285714285716</v>
-      </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46">
-        <v>4285.7142857142853</v>
-      </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46">
-        <v>3571.4285714285716</v>
-      </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46">
-        <v>3571.4285714285716</v>
-      </c>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46">
-        <v>15000</v>
-      </c>
-      <c r="N9" s="46">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46">
-        <v>6868.131868131868</v>
-      </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46">
-        <v>18131.86813186813</v>
-      </c>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46">
-        <v>25000</v>
-      </c>
-      <c r="N11" s="46">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46">
-        <v>4120.8791208791208</v>
-      </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46">
-        <v>4368.131868131868</v>
-      </c>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46">
-        <v>8489.0109890109889</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46">
-        <v>8489.0109890109889</v>
-      </c>
-      <c r="N13" s="46">
-        <v>8489.0109890109889</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46">
-        <v>57234.274725274721</v>
-      </c>
-      <c r="N14" s="46">
-        <v>57234.274725274721</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="46">
-        <v>9</v>
-      </c>
-      <c r="C15" s="46">
-        <v>4120.8791208791208</v>
-      </c>
-      <c r="D15" s="46">
-        <v>3571.4285714285716</v>
-      </c>
-      <c r="E15" s="46">
-        <v>6868.131868131868</v>
-      </c>
-      <c r="F15" s="46">
-        <v>4285.7142857142853</v>
-      </c>
-      <c r="G15" s="46">
-        <v>4368.131868131868</v>
-      </c>
-      <c r="H15" s="46">
-        <v>3571.4285714285716</v>
-      </c>
-      <c r="I15" s="46">
-        <v>4368.131868131868</v>
-      </c>
-      <c r="J15" s="46">
-        <v>4368.131868131868</v>
-      </c>
-      <c r="K15" s="46">
-        <v>18131.86813186813</v>
-      </c>
-      <c r="L15" s="46">
-        <v>3571.4285714285716</v>
-      </c>
-      <c r="M15" s="46">
-        <v>114459.54945054944</v>
-      </c>
-      <c r="N15" s="46">
-        <v>171693.82417582418</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5799616-A4BD-4760-A986-853424D4D6FD}">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L10" sqref="L10"/>
+      <selection pane="topRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -2737,11 +2345,11 @@
         <v>7950</v>
       </c>
       <c r="H2" s="17">
-        <f>VLOOKUP(Основная!$B2,Вспомогательная!$A$3:$B$6,2,)*Основная!$G2*0.3/$A$29</f>
+        <f>VLOOKUP(Основная!$B2,Вспомогательная!$A$3:$B$6,2,)*Основная!$G2*0.3/dollar</f>
         <v>13978.021978021978</v>
       </c>
       <c r="I2" s="18">
-        <f>Основная!$G2*Основная!$F2*0.3/$A$29</f>
+        <f>Основная!$G2*Основная!$F2*0.3/dollar</f>
         <v>4368.131868131868</v>
       </c>
     </row>
@@ -2768,11 +2376,11 @@
         <v>7950</v>
       </c>
       <c r="H3" s="23">
-        <f>VLOOKUP(Основная!$B3,Вспомогательная!$A$3:$B$6,2,)*Основная!$G3*0.3/$A$29</f>
+        <f>VLOOKUP(Основная!$B3,Вспомогательная!$A$3:$B$6,2,)*Основная!$G3*0.3/dollar</f>
         <v>13978.021978021978</v>
       </c>
       <c r="I3" s="24">
-        <f>Основная!$G3*Основная!$F3*0.3/$A$29</f>
+        <f>Основная!$G3*Основная!$F3*0.3/dollar</f>
         <v>4368.131868131868</v>
       </c>
     </row>
@@ -2815,11 +2423,11 @@
         <v>6500</v>
       </c>
       <c r="H5" s="17">
-        <f>VLOOKUP(Основная!$B5,Вспомогательная!$A$3:$B$6,2,)*Основная!$G5*0.3/$A$29</f>
+        <f>VLOOKUP(Основная!$B5,Вспомогательная!$A$3:$B$6,2,)*Основная!$G5*0.3/dollar</f>
         <v>4285.7142857142853</v>
       </c>
       <c r="I5" s="18">
-        <f>Основная!$G5*Основная!$F5*0.3/$A$29</f>
+        <f>Основная!$G5*Основная!$F5*0.3/dollar</f>
         <v>4285.7142857142853</v>
       </c>
     </row>
@@ -2846,11 +2454,11 @@
         <v>6500</v>
       </c>
       <c r="H6" s="23">
-        <f>VLOOKUP(Основная!$B6,Вспомогательная!$A$3:$B$6,2,)*Основная!$G6*0.3/$A$29</f>
+        <f>VLOOKUP(Основная!$B6,Вспомогательная!$A$3:$B$6,2,)*Основная!$G6*0.3/dollar</f>
         <v>4285.7142857142853</v>
       </c>
       <c r="I6" s="24">
-        <f>Основная!$G6*Основная!$F6*0.3/$A$29</f>
+        <f>Основная!$G6*Основная!$F6*0.3/dollar</f>
         <v>3571.4285714285716</v>
       </c>
     </row>
@@ -2877,11 +2485,11 @@
         <v>6500</v>
       </c>
       <c r="H7" s="17">
-        <f>VLOOKUP(Основная!$B7,Вспомогательная!$A$3:$B$6,2,)*Основная!$G7*0.3/$A$29</f>
+        <f>VLOOKUP(Основная!$B7,Вспомогательная!$A$3:$B$6,2,)*Основная!$G7*0.3/dollar</f>
         <v>4285.7142857142853</v>
       </c>
       <c r="I7" s="18">
-        <f>Основная!$G7*Основная!$F7*0.3/$A$29</f>
+        <f>Основная!$G7*Основная!$F7*0.3/dollar</f>
         <v>3571.4285714285716</v>
       </c>
     </row>
@@ -2908,11 +2516,11 @@
         <v>6500</v>
       </c>
       <c r="H8" s="23">
-        <f>VLOOKUP(Основная!$B8,Вспомогательная!$A$3:$B$6,2,)*Основная!$G8*0.3/$A$29</f>
+        <f>VLOOKUP(Основная!$B8,Вспомогательная!$A$3:$B$6,2,)*Основная!$G8*0.3/dollar</f>
         <v>4285.7142857142853</v>
       </c>
       <c r="I8" s="24">
-        <f>Основная!$G8*Основная!$F8*0.3/$A$29</f>
+        <f>Основная!$G8*Основная!$F8*0.3/dollar</f>
         <v>3571.4285714285716</v>
       </c>
     </row>
@@ -2955,11 +2563,11 @@
         <v>2500</v>
       </c>
       <c r="H10" s="17">
-        <f>VLOOKUP(Основная!$B10,Вспомогательная!$A$3:$B$6,2,)*Основная!$G10*0.3/$A$29</f>
+        <f>VLOOKUP(Основная!$B10,Вспомогательная!$A$3:$B$6,2,)*Основная!$G10*0.3/dollar</f>
         <v>18131.86813186813</v>
       </c>
       <c r="I10" s="18">
-        <f>Основная!$G10*Основная!$F10*0.3/$A$29</f>
+        <f>Основная!$G10*Основная!$F10*0.3/dollar</f>
         <v>18131.86813186813</v>
       </c>
     </row>
@@ -2986,11 +2594,11 @@
         <v>2500</v>
       </c>
       <c r="H11" s="23">
-        <f>VLOOKUP(Основная!$B11,Вспомогательная!$A$3:$B$6,2,)*Основная!$G11*0.3/$A$29</f>
+        <f>VLOOKUP(Основная!$B11,Вспомогательная!$A$3:$B$6,2,)*Основная!$G11*0.3/dollar</f>
         <v>18131.86813186813</v>
       </c>
       <c r="I11" s="24">
-        <f>Основная!$G11*Основная!$F11*0.3/$A$29</f>
+        <f>Основная!$G11*Основная!$F11*0.3/dollar</f>
         <v>6868.131868131868</v>
       </c>
     </row>
@@ -3033,11 +2641,11 @@
         <v>7500</v>
       </c>
       <c r="H13" s="17">
-        <f>VLOOKUP(Основная!$B13,Вспомогательная!$A$3:$B$6,2,)*Основная!$G13*0.3/$A$29</f>
+        <f>VLOOKUP(Основная!$B13,Вспомогательная!$A$3:$B$6,2,)*Основная!$G13*0.3/dollar</f>
         <v>4120.8791208791208</v>
       </c>
       <c r="I13" s="18">
-        <f>Основная!$G13*Основная!$F13*0.3/$A$29</f>
+        <f>Основная!$G13*Основная!$F13*0.3/dollar</f>
         <v>4120.8791208791208</v>
       </c>
     </row>
@@ -3064,11 +2672,11 @@
         <v>7950</v>
       </c>
       <c r="H14" s="35">
-        <f>VLOOKUP(Основная!$B14,Вспомогательная!$A$3:$B$6,2,)*Основная!$G14*0.3/$A$29</f>
+        <f>VLOOKUP(Основная!$B14,Вспомогательная!$A$3:$B$6,2,)*Основная!$G14*0.3/dollar</f>
         <v>4368.131868131868</v>
       </c>
       <c r="I14" s="36">
-        <f>Основная!$G14*Основная!$F14*0.3/$A$29</f>
+        <f>Основная!$G14*Основная!$F14*0.3/dollar</f>
         <v>4368.131868131868</v>
       </c>
     </row>
@@ -3118,6 +2726,10 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="FiJFYH7D0yB3ZM2gk5wjdK+QUaHeRse73jWgQlf9jBoedRC59CA3ly03KdoWLqhRDDPbnC4Ok+j9M48AQB2UbA==" saltValue="O/knObBKksxLxZFQhFoFmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" deleteColumns="0" deleteRows="0"/>
+  <protectedRanges>
+    <protectedRange algorithmName="SHA-512" hashValue="KbFPV7VL1hSIJYnGO0I3uDxmGQ3yacUVqm9O+DXN2X0EvSDWAEiyqoWHgwNwRKAqRDz2xphKGLNx1VAh7Ow0+Q==" saltValue="HnypO1ecIwOyokL7D2I4QA==" spinCount="100000" sqref="H2:I14" name="Диапазон1"/>
+  </protectedRanges>
   <autoFilter ref="A1:I14" xr:uid="{8329D174-3D3B-48FA-9233-44CF89F00C1A}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
@@ -3128,18 +2740,40 @@
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не коректная дата" error="Дата должна быть больше чем сегоднешняя" promptTitle="Дата больше сегодняшней" sqref="E2:E3 E5:E8 E10:E11 E13:E14" xr:uid="{03EFA30A-617D-44B0-B00C-296EB722801B}">
       <formula1>TODAY()</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно" error="Не верная длина поля" promptTitle="Длина рейса" prompt="Длина рейса не меньше 1 и не больше 5" sqref="C2:C3 C5:C8 C10:C11 C13:C14" xr:uid="{EBF4BC07-2D01-43A4-9ADE-13E2CF3E1790}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верно" error="Не верная длина поля" promptTitle="Длина рейса" prompt="Длина рейса не меньше 1 и не больше 5" sqref="C13:C14 C5:C8 C10:C11 C2 C3" xr:uid="{EBF4BC07-2D01-43A4-9ADE-13E2CF3E1790}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <cellWatches>
+    <cellWatch r="H2"/>
+    <cellWatch r="I2"/>
+    <cellWatch r="H3"/>
+    <cellWatch r="I3"/>
+    <cellWatch r="H5"/>
+    <cellWatch r="I5"/>
+    <cellWatch r="H6"/>
+    <cellWatch r="I6"/>
+    <cellWatch r="H7"/>
+    <cellWatch r="I7"/>
+    <cellWatch r="H8"/>
+    <cellWatch r="I8"/>
+    <cellWatch r="H10"/>
+    <cellWatch r="I10"/>
+    <cellWatch r="H11"/>
+    <cellWatch r="I11"/>
+    <cellWatch r="H13"/>
+    <cellWatch r="I13"/>
+    <cellWatch r="H14"/>
+    <cellWatch r="I14"/>
+  </cellWatches>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
-        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" xr:uid="{B34829F7-2A67-44FC-80B9-B48837F0A8B5}">
+        <x14:dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Не верное количество" error="Количество мест меньше чем значение" prompt="Кол-тво пассажиров должно быть больше 0  и не больше чем вместимость " xr:uid="{B34829F7-2A67-44FC-80B9-B48837F0A8B5}">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
@@ -3235,12 +2869,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E67AF-CFB6-438A-B929-F545E3C3BEC8}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3328,9 +2962,376 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cellWatches>
+    <cellWatch r="B5"/>
+    <cellWatch r="B4"/>
+    <cellWatch r="B3"/>
+    <cellWatch r="B6"/>
+  </cellWatches>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F44CB3-BDE4-4FD6-B9BE-3BFDFE8C02D9}">
+  <dimension ref="A3:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>11111</v>
+      </c>
+      <c r="D4">
+        <v>15476</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="46">
+        <v>9</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46">
+        <v>4368.131868131868</v>
+      </c>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46">
+        <v>4368.131868131868</v>
+      </c>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46">
+        <v>8736.2637362637361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46">
+        <v>8736.2637362637361</v>
+      </c>
+      <c r="N7" s="46">
+        <v>8736.2637362637361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46">
+        <v>3571.4285714285716</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46">
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46">
+        <v>3571.4285714285716</v>
+      </c>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46">
+        <v>3571.4285714285716</v>
+      </c>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46">
+        <v>15000</v>
+      </c>
+      <c r="N9" s="46">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46">
+        <v>6868.131868131868</v>
+      </c>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46">
+        <v>18131.86813186813</v>
+      </c>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46">
+        <v>25000</v>
+      </c>
+      <c r="N11" s="46">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46">
+        <v>4120.8791208791208</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46">
+        <v>4368.131868131868</v>
+      </c>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46">
+        <v>8489.0109890109889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46">
+        <v>8489.0109890109889</v>
+      </c>
+      <c r="N13" s="46">
+        <v>8489.0109890109889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46">
+        <v>57234.274725274721</v>
+      </c>
+      <c r="N14" s="46">
+        <v>57234.274725274721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="46">
+        <v>9</v>
+      </c>
+      <c r="C15" s="46">
+        <v>4120.8791208791208</v>
+      </c>
+      <c r="D15" s="46">
+        <v>3571.4285714285716</v>
+      </c>
+      <c r="E15" s="46">
+        <v>6868.131868131868</v>
+      </c>
+      <c r="F15" s="46">
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="G15" s="46">
+        <v>4368.131868131868</v>
+      </c>
+      <c r="H15" s="46">
+        <v>3571.4285714285716</v>
+      </c>
+      <c r="I15" s="46">
+        <v>4368.131868131868</v>
+      </c>
+      <c r="J15" s="46">
+        <v>4368.131868131868</v>
+      </c>
+      <c r="K15" s="46">
+        <v>18131.86813186813</v>
+      </c>
+      <c r="L15" s="46">
+        <v>3571.4285714285716</v>
+      </c>
+      <c r="M15" s="46">
+        <v>114459.54945054944</v>
+      </c>
+      <c r="N15" s="46">
+        <v>171693.82417582418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3338,9 +3339,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D01E49-A145-4516-A1BC-6394AD4EFD38}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F28" sqref="F28"/>
+      <selection pane="topRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -3388,174 +3389,174 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="12">
-        <v>11111</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="14">
-        <v>44607</v>
+        <v>44620</v>
       </c>
       <c r="F2" s="15">
         <v>50</v>
       </c>
-      <c r="G2" s="29">
-        <v>7500</v>
+      <c r="G2" s="16">
+        <v>7950</v>
       </c>
       <c r="H2" s="17">
-        <f>VLOOKUP('Лист1 (2)'!$B10,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G10*0.3/$A$26</f>
-        <v>18131.86813186813</v>
+        <f>VLOOKUP('Лист1 (2)'!$B2,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G2*0.3/$A$26</f>
+        <v>13978.021978021978</v>
       </c>
       <c r="I2" s="18">
-        <f>'Лист1 (2)'!$G10*'Лист1 (2)'!$F10*0.3/$A$26</f>
-        <v>6868.131868131868</v>
+        <f>'Лист1 (2)'!$G2*'Лист1 (2)'!$F2*0.3/$A$26</f>
+        <v>4368.131868131868</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="20">
+        <v>44620</v>
+      </c>
+      <c r="F3" s="21">
+        <v>50</v>
+      </c>
+      <c r="G3" s="22">
+        <v>7950</v>
+      </c>
+      <c r="H3" s="23">
+        <f>VLOOKUP('Лист1 (2)'!$B3,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G3*0.3/$A$26</f>
+        <v>13978.021978021978</v>
+      </c>
+      <c r="I3" s="24">
+        <f>'Лист1 (2)'!$G3*'Лист1 (2)'!$F3*0.3/$A$26</f>
+        <v>4368.131868131868</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E4" s="14">
         <v>44612</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F4" s="15">
         <v>60</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G4" s="16">
         <v>6500</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H4" s="17">
         <f>VLOOKUP('Лист1 (2)'!$B4,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G4*0.3/$A$26</f>
-        <v>13978.021978021978</v>
-      </c>
-      <c r="I3" s="18">
+        <v>4285.7142857142853</v>
+      </c>
+      <c r="I4" s="18">
         <f>'Лист1 (2)'!$G4*'Лист1 (2)'!$F4*0.3/$A$26</f>
-        <v>4368.131868131868</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="14">
-        <v>44620</v>
-      </c>
-      <c r="F4" s="15">
-        <v>50</v>
-      </c>
-      <c r="G4" s="16">
-        <v>7950</v>
-      </c>
-      <c r="H4" s="17">
-        <f>VLOOKUP('Лист1 (2)'!$B2,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G2*0.3/$A$26</f>
-        <v>4120.8791208791208</v>
-      </c>
-      <c r="I4" s="18">
-        <f>'Лист1 (2)'!$G2*'Лист1 (2)'!$F2*0.3/$A$26</f>
-        <v>4120.8791208791208</v>
+        <v>4285.7142857142853</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="20">
-        <v>44620</v>
+        <v>44644</v>
       </c>
       <c r="F5" s="21">
         <v>50</v>
       </c>
       <c r="G5" s="22">
-        <v>7950</v>
+        <v>6500</v>
       </c>
       <c r="H5" s="23">
-        <f>VLOOKUP('Лист1 (2)'!$B3,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G3*0.3/$A$26</f>
+        <f>VLOOKUP('Лист1 (2)'!$B5,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G5*0.3/$A$26</f>
         <v>4285.7142857142853</v>
       </c>
       <c r="I5" s="24">
-        <f>'Лист1 (2)'!$G3*'Лист1 (2)'!$F3*0.3/$A$26</f>
-        <v>4285.7142857142853</v>
+        <f>'Лист1 (2)'!$G5*'Лист1 (2)'!$F5*0.3/$A$26</f>
+        <v>3571.4285714285716</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="12">
+        <v>15476</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="14">
-        <v>44620</v>
+        <v>44660</v>
       </c>
       <c r="F6" s="15">
-        <v>660</v>
+        <v>50</v>
       </c>
       <c r="G6" s="16">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="H6" s="17">
-        <f>VLOOKUP('Лист1 (2)'!$B8,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G8*0.3/$A$26</f>
-        <v>4368.131868131868</v>
+        <f>VLOOKUP('Лист1 (2)'!$B6,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G6*0.3/$A$26</f>
+        <v>4285.7142857142853</v>
       </c>
       <c r="I6" s="18">
-        <f>'Лист1 (2)'!$G8*'Лист1 (2)'!$F8*0.3/$A$26</f>
-        <v>4368.131868131868</v>
+        <f>'Лист1 (2)'!$G6*'Лист1 (2)'!$F6*0.3/$A$26</f>
+        <v>3571.4285714285716</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
-        <v>7</v>
-      </c>
-      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>24</v>
+      <c r="C7" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="20">
-        <v>44644</v>
+        <v>44676</v>
       </c>
       <c r="F7" s="21">
         <v>50</v>
@@ -3564,143 +3565,143 @@
         <v>6500</v>
       </c>
       <c r="H7" s="23">
-        <f>VLOOKUP('Лист1 (2)'!$B5,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G5*0.3/$A$26</f>
-        <v>13978.021978021978</v>
+        <f>VLOOKUP('Лист1 (2)'!$B7,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G7*0.3/$A$26</f>
+        <v>4285.7142857142853</v>
       </c>
       <c r="I7" s="24">
-        <f>'Лист1 (2)'!$G5*'Лист1 (2)'!$F5*0.3/$A$26</f>
-        <v>4368.131868131868</v>
+        <f>'Лист1 (2)'!$G7*'Лист1 (2)'!$F7*0.3/$A$26</f>
+        <v>3571.4285714285716</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="14">
+        <v>44620</v>
+      </c>
+      <c r="F8" s="15">
+        <v>660</v>
+      </c>
+      <c r="G8" s="16">
+        <v>2500</v>
+      </c>
+      <c r="H8" s="17">
+        <f>VLOOKUP('Лист1 (2)'!$B8,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G8*0.3/$A$26</f>
+        <v>18131.86813186813</v>
+      </c>
+      <c r="I8" s="18">
+        <f>'Лист1 (2)'!$G8*'Лист1 (2)'!$F8*0.3/$A$26</f>
+        <v>18131.86813186813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="20">
+        <v>44662</v>
+      </c>
+      <c r="F9" s="21">
+        <v>250</v>
+      </c>
+      <c r="G9" s="22">
+        <v>2500</v>
+      </c>
+      <c r="H9" s="23">
+        <f>VLOOKUP('Лист1 (2)'!$B9,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G9*0.3/$A$26</f>
+        <v>18131.86813186813</v>
+      </c>
+      <c r="I9" s="24">
+        <f>'Лист1 (2)'!$G9*'Лист1 (2)'!$F9*0.3/$A$26</f>
+        <v>6868.131868131868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>1</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="20">
-        <v>44644</v>
-      </c>
-      <c r="F8" s="21">
+      <c r="C10" s="12">
+        <v>11111</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="14">
+        <v>44607</v>
+      </c>
+      <c r="F10" s="15">
         <v>50</v>
       </c>
-      <c r="G8" s="22">
-        <v>7950</v>
-      </c>
-      <c r="H8" s="23">
-        <f>VLOOKUP('Лист1 (2)'!$B11,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G11*0.3/$A$26</f>
-        <v>4285.7142857142853</v>
-      </c>
-      <c r="I8" s="24">
-        <f>'Лист1 (2)'!$G11*'Лист1 (2)'!$F11*0.3/$A$26</f>
-        <v>3571.4285714285716</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="12">
-        <v>15476</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="14">
-        <v>44660</v>
-      </c>
-      <c r="F9" s="15">
-        <v>50</v>
-      </c>
-      <c r="G9" s="16">
-        <v>6500</v>
-      </c>
-      <c r="H9" s="17">
-        <f>VLOOKUP('Лист1 (2)'!$B6,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G6*0.3/$A$26</f>
-        <v>18131.86813186813</v>
-      </c>
-      <c r="I9" s="18">
-        <f>'Лист1 (2)'!$G6*'Лист1 (2)'!$F6*0.3/$A$26</f>
-        <v>18131.86813186813</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="20">
-        <v>44662</v>
-      </c>
-      <c r="F10" s="21">
-        <v>250</v>
-      </c>
-      <c r="G10" s="22">
-        <v>2500</v>
-      </c>
-      <c r="H10" s="23">
-        <f>VLOOKUP('Лист1 (2)'!$B9,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G9*0.3/$A$26</f>
-        <v>4285.7142857142853</v>
-      </c>
-      <c r="I10" s="24">
-        <f>'Лист1 (2)'!$G9*'Лист1 (2)'!$F9*0.3/$A$26</f>
-        <v>3571.4285714285716</v>
+      <c r="G10" s="29">
+        <v>7500</v>
+      </c>
+      <c r="H10" s="17">
+        <f>VLOOKUP('Лист1 (2)'!$B10,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G10*0.3/$A$26</f>
+        <v>4120.8791208791208</v>
+      </c>
+      <c r="I10" s="18">
+        <f>'Лист1 (2)'!$G10*'Лист1 (2)'!$F10*0.3/$A$26</f>
+        <v>4120.8791208791208</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
-        <v>10</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="32">
-        <v>44676</v>
+        <v>44644</v>
       </c>
       <c r="F11" s="33">
         <v>50</v>
       </c>
       <c r="G11" s="34">
-        <v>6500</v>
+        <v>7950</v>
       </c>
       <c r="H11" s="35">
-        <f>VLOOKUP('Лист1 (2)'!$B7,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G7*0.3/$A$26</f>
-        <v>4285.7142857142853</v>
+        <f>VLOOKUP('Лист1 (2)'!$B11,Вспомогательная!$A$3:$B$6,2,)*'Лист1 (2)'!$G11*0.3/$A$26</f>
+        <v>4368.131868131868</v>
       </c>
       <c r="I11" s="36">
-        <f>'Лист1 (2)'!$G7*'Лист1 (2)'!$F7*0.3/$A$26</f>
-        <v>3571.4285714285716</v>
+        <f>'Лист1 (2)'!$G11*'Лист1 (2)'!$F11*0.3/$A$26</f>
+        <v>4368.131868131868</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C17" s="50"/>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C17" s="49"/>
       <c r="D17" s="7" t="s">
         <v>3</v>
       </c>
@@ -3708,8 +3709,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="50"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="49"/>
       <c r="D18" s="14">
         <v>44607</v>
       </c>
@@ -3717,76 +3718,92 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="50"/>
-      <c r="D19" s="51" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="49"/>
+      <c r="D19" s="50" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="15">
         <f>SUBTOTAL(9,E18:E18)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="50"/>
+      <c r="F19" s="53">
+        <f>$E$19*100/$E$35</f>
+        <v>3.7878787878787881</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="49"/>
       <c r="D20" s="14">
         <v>44612</v>
       </c>
       <c r="E20" s="15">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C21" s="50"/>
-      <c r="D21" s="51" t="s">
+      <c r="F20" s="53"/>
+    </row>
+    <row r="21" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C21" s="49"/>
+      <c r="D21" s="50" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="15">
         <f>SUBTOTAL(9,E20:E20)</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="50"/>
+      <c r="F21" s="53">
+        <f>$E$21*100/$E$35</f>
+        <v>4.5454545454545459</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="49"/>
       <c r="D22" s="14">
         <v>44620</v>
       </c>
       <c r="E22" s="15">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C23" s="50"/>
+      <c r="F22" s="53"/>
+    </row>
+    <row r="23" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C23" s="49"/>
       <c r="D23" s="20">
         <v>44620</v>
       </c>
       <c r="E23" s="21">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="50"/>
+      <c r="F23" s="53"/>
+    </row>
+    <row r="24" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="49"/>
       <c r="D24" s="14">
         <v>44620</v>
       </c>
       <c r="E24" s="15">
         <v>660</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F24" s="53"/>
+    </row>
+    <row r="25" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51" t="s">
+      <c r="C25" s="49"/>
+      <c r="D25" s="50" t="s">
         <v>45</v>
       </c>
       <c r="E25" s="15">
         <f>SUBTOTAL(9,E22:E24)</f>
         <v>760</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F25" s="53">
+        <f>$E$25*100/$E$35</f>
+        <v>57.575757575757578</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>27.3</v>
       </c>
@@ -3796,83 +3813,104 @@
       <c r="E26" s="21">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F26" s="53"/>
+    </row>
+    <row r="27" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="D27" s="20">
         <v>44644</v>
       </c>
       <c r="E27" s="21">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="52" t="s">
+      <c r="F27" s="53"/>
+    </row>
+    <row r="28" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="51" t="s">
         <v>46</v>
       </c>
       <c r="E28" s="21">
         <f>SUBTOTAL(9,E26:E27)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F28" s="53">
+        <f>$E$28*100/$E$35</f>
+        <v>7.5757575757575761</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="D29" s="14">
         <v>44660</v>
       </c>
       <c r="E29" s="15">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C30" s="50"/>
-      <c r="D30" s="51" t="s">
+      <c r="F29" s="53"/>
+    </row>
+    <row r="30" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C30" s="49"/>
+      <c r="D30" s="50" t="s">
         <v>47</v>
       </c>
       <c r="E30" s="15">
         <f>SUBTOTAL(9,E29:E29)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="50"/>
+      <c r="F30" s="53">
+        <f>$E$30*100/$E$35</f>
+        <v>3.7878787878787881</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="49"/>
       <c r="D31" s="20">
         <v>44662</v>
       </c>
       <c r="E31" s="21">
         <v>250</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C32" s="50"/>
-      <c r="D32" s="52" t="s">
+      <c r="F31" s="53"/>
+    </row>
+    <row r="32" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C32" s="49"/>
+      <c r="D32" s="51" t="s">
         <v>48</v>
       </c>
       <c r="E32" s="21">
         <f>SUBTOTAL(9,E31:E31)</f>
         <v>250</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="50"/>
+      <c r="F32" s="53">
+        <f>$E$32*100/$E$35</f>
+        <v>18.939393939393938</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="49"/>
       <c r="D33" s="32">
         <v>44676</v>
       </c>
       <c r="E33" s="33">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C34" s="50"/>
-      <c r="D34" s="53" t="s">
+      <c r="F33" s="53"/>
+    </row>
+    <row r="34" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C34" s="49"/>
+      <c r="D34" s="52" t="s">
         <v>49</v>
       </c>
       <c r="E34" s="40">
         <f>SUBTOTAL(9,E33:E33)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="50"/>
-      <c r="D35" s="53" t="s">
+      <c r="F34" s="53">
+        <f>$E$34*100/$E$35</f>
+        <v>3.7878787878787881</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="49"/>
+      <c r="D35" s="52" t="s">
         <v>28</v>
       </c>
       <c r="E35" s="40">
@@ -3880,22 +3918,22 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="36" spans="3:5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="C36" s="50"/>
-    </row>
-    <row r="37" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="50"/>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="50"/>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="50"/>
+    <row r="36" spans="3:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C36" s="49"/>
+    </row>
+    <row r="37" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="49"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="49"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="49"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I11" xr:uid="{8329D174-3D3B-48FA-9233-44CF89F00C1A}">
+  <autoFilter ref="A1:I11" xr:uid="{ACBC32A0-5278-4128-AD8D-9044898B9D5A}">
     <sortState ref="A2:I11">
-      <sortCondition ref="E1:E11"/>
+      <sortCondition ref="B1:B11"/>
     </sortState>
   </autoFilter>
   <dataValidations count="3">

--- a/Office/1.xlsx
+++ b/Office/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.1\Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFF6955-40E9-47BC-8AE5-46C3D2BA1CC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA66641-38FB-4B43-A5F6-F2A6A830EA22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="619" xr2:uid="{E599AE80-615C-4B6C-9C1F-E854D84AE947}"/>
   </bookViews>
@@ -2276,7 +2276,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M8" sqref="M8"/>
+      <selection pane="topRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -2726,7 +2726,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FiJFYH7D0yB3ZM2gk5wjdK+QUaHeRse73jWgQlf9jBoedRC59CA3ly03KdoWLqhRDDPbnC4Ok+j9M48AQB2UbA==" saltValue="O/knObBKksxLxZFQhFoFmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" deleteColumns="0" deleteRows="0"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="KbFPV7VL1hSIJYnGO0I3uDxmGQ3yacUVqm9O+DXN2X0EvSDWAEiyqoWHgwNwRKAqRDz2xphKGLNx1VAh7Ow0+Q==" saltValue="HnypO1ecIwOyokL7D2I4QA==" spinCount="100000" sqref="H2:I14" name="Диапазон1"/>
   </protectedRanges>
@@ -2979,7 +2979,7 @@
   <dimension ref="A3:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Office/1.xlsx
+++ b/Office/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.1\Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA66641-38FB-4B43-A5F6-F2A6A830EA22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D771D9D-E37E-44E3-AB4A-DEDA929E868A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="619" xr2:uid="{E599AE80-615C-4B6C-9C1F-E854D84AE947}"/>
+    <workbookView xWindow="3570" yWindow="390" windowWidth="21600" windowHeight="11385" tabRatio="619" xr2:uid="{E599AE80-615C-4B6C-9C1F-E854D84AE947}"/>
   </bookViews>
   <sheets>
     <sheet name="Основная" sheetId="1" r:id="rId1"/>
